--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39265EB0-12CC-D046-82DD-3CD625E45E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531FE134-F74D-9743-8D35-63A3D9ED9AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="3120" yWindow="760" windowWidth="26820" windowHeight="17640" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
   <si>
     <t>Topic</t>
   </si>
@@ -102,9 +102,6 @@
 - Regex</t>
   </si>
   <si>
-    <t>THANKSGIVING</t>
-  </si>
-  <si>
     <t>- Class Introduction
 - Welcome to VS Code</t>
   </si>
@@ -129,9 +126,6 @@
   <si>
     <t>- Defensive Programming
 - Groupby / Split-Apply-Combine</t>
-  </si>
-  <si>
-    <t>**Final Project Report and Presentation Due**</t>
   </si>
   <si>
     <t>- JVP Chapter 5 up to "Hyperparameters and Model Validation" Section (pp 331 - 359)</t>
@@ -145,9 +139,6 @@
 - `Patsy: Differences from R &lt;https://patsy.readthedocs.io/en/latest/R-comparison.html&gt;`_</t>
   </si>
   <si>
-    <t>No Class</t>
-  </si>
-  <si>
     <t>- **SETUP 1:** `Installing Python and miniconda &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/00_setup_env/setup_python.html&gt;`_
 - **SETUP 2:** `Installing and Configuring VS Code &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/00_setup_env/setup_vscode.html&gt;`_
 - `chatGPT and You &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/99_advice/llms.html&gt;`_</t>
@@ -168,94 +159,7 @@
 - `Python v. R &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/python_v_r.html&gt;`_</t>
   </si>
   <si>
-    <t>Tues, Aug 29</t>
-  </si>
-  <si>
-    <t>Thurs, Aug 31</t>
-  </si>
-  <si>
-    <t>Fri, Sep 1</t>
-  </si>
-  <si>
-    <t>Tues, Sep 5</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 7</t>
-  </si>
-  <si>
-    <t>Tues, Sep 12</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 14</t>
-  </si>
-  <si>
-    <t>Tues, Sep 19</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 21</t>
-  </si>
-  <si>
-    <t>Tues, Sep 26</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 28</t>
-  </si>
-  <si>
-    <t>Tues, Oct 3</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 5</t>
-  </si>
-  <si>
     <t>**FALL BREAK**</t>
-  </si>
-  <si>
-    <t>Tues, Oct 10</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 12</t>
-  </si>
-  <si>
-    <t>Tues, Oct 17</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 19</t>
-  </si>
-  <si>
-    <t>Tues, Oct 24</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 26</t>
-  </si>
-  <si>
-    <t>Tues, Oct 31</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 2</t>
-  </si>
-  <si>
-    <t>Tues, Nov 7</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 9</t>
-  </si>
-  <si>
-    <t>Tues, Nov 14</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 16</t>
-  </si>
-  <si>
-    <t>Tues, Nov 21</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 23</t>
-  </si>
-  <si>
-    <t>Tues, Nov 28</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 30</t>
   </si>
   <si>
     <t>- `Advanced Command Line &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/10_commandline/commandline_part2.html&gt;`_
@@ -345,9 +249,6 @@
     <t>- `Link &lt;exercises/Exercise_merging.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>Wed Dec 13</t>
-  </si>
-  <si>
     <t>- `Plotting in Python through seaborn and Grammer of Graphics &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_5/week_2/10_plotting_in_python.html&gt;`_</t>
   </si>
   <si>
@@ -372,9 +273,6 @@
 - `Strategies for Big Data &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/30_big_data/20_big_data_strategies.html&gt;`_
 - Download the dataset linked at the top of the linked exercise before class.
 - `Parquet Format &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/30_big_data/30_parquet.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Ex &lt;exercises/Exercise_bigdata.ipynb&gt;`_</t>
   </si>
   <si>
     <t>- `Workflow Management &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/workflow.html&gt;`_
@@ -426,13 +324,109 @@
 - **Opioid Project Rough Draft Due**</t>
   </si>
   <si>
-    <t>- `Link &lt;execises/Exercise_codeyourownlinearregression.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_dask_realdata.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>Catchup Time</t>
+    <t>Tues, Aug 27</t>
+  </si>
+  <si>
+    <t>Thurs, Aug 29</t>
+  </si>
+  <si>
+    <t>Fri, Aug 30</t>
+  </si>
+  <si>
+    <t>Tues, Sep 3</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 5</t>
+  </si>
+  <si>
+    <t>Tues, Sep 10</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 12</t>
+  </si>
+  <si>
+    <t>Tues, Sep 17</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 19</t>
+  </si>
+  <si>
+    <t>Tues, Sep 24</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 26</t>
+  </si>
+  <si>
+    <t>Tues, Oct 1</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 3</t>
+  </si>
+  <si>
+    <t>Tues, Oct 8</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 10</t>
+  </si>
+  <si>
+    <t>Tues, Oct 15</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 17</t>
+  </si>
+  <si>
+    <t>Tues, Oct 22</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 24</t>
+  </si>
+  <si>
+    <t>Tues, Oct 29</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 31</t>
+  </si>
+  <si>
+    <t>Tues, Nov 5</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 7</t>
+  </si>
+  <si>
+    <t>Tues, Nov 12</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 14</t>
+  </si>
+  <si>
+    <t>Tues, Nov 19</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 21</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_bigdata.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>**Discuss mid-semester project in class**</t>
+  </si>
+  <si>
+    <t>[finish groupby and reshaping exercises]</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_codeyourownlinearregression.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>**FALL BREAK** (Not technically, but take the week)</t>
+  </si>
+  <si>
+    <t>LAST CLASS</t>
+  </si>
+  <si>
+    <t>**Final Project Report Due**</t>
+  </si>
+  <si>
+    <t>Wed Dec 12</t>
   </si>
 </sst>
 </file>
@@ -539,9 +533,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -579,7 +573,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -685,7 +679,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -827,7 +821,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -835,15 +829,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="105.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="57.1640625" customWidth="1"/>
@@ -865,33 +859,33 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -902,83 +896,83 @@
     </row>
     <row r="5" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="165" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>16</v>
@@ -986,257 +980,241 @@
     </row>
     <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
+        <v>83</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="105" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="105" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>98</v>
+        <v>61</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="135" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
+        <v>94</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531FE134-F74D-9743-8D35-63A3D9ED9AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05D0CCE6-370F-B64A-A86F-D0235D17A49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="760" windowWidth="26820" windowHeight="17640" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="2900" yWindow="760" windowWidth="26820" windowHeight="17640" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
   <si>
     <t>Topic</t>
   </si>
@@ -49,12 +49,6 @@
   <si>
     <t>- Pandas: Reshaping
 - Pandas: Categoricals</t>
-  </si>
-  <si>
-    <t>**SOFTWARE INSTALL DAY**</t>
-  </si>
-  <si>
-    <t>A day of trouble shooting install issues</t>
   </si>
   <si>
     <t>- Parallelism 
@@ -139,33 +133,7 @@
 - `Patsy: Differences from R &lt;https://patsy.readthedocs.io/en/latest/R-comparison.html&gt;`_</t>
   </si>
   <si>
-    <t>- **SETUP 1:** `Installing Python and miniconda &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/00_setup_env/setup_python.html&gt;`_
-- **SETUP 2:** `Installing and Configuring VS Code &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/00_setup_env/setup_vscode.html&gt;`_
-- `chatGPT and You &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/99_advice/llms.html&gt;`_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- **SETUP 3:** `Setup Augmented Command Line &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/00_setup_env/setup_augmented_commandline.html&gt;`_
-- `Command Line Basics &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/10_commandline/commandline_part1.html&gt;`_
-- `Read and sign syllabus &lt;https://github.com/nickeubank/practicaldatascience/raw/master/syllabus/Syllabus_PracticalDataScience.pdf&gt;`_
-- `Register with IPUMS &lt;https://uma.pop.umn.edu/usa/user/new&gt;`_
-- `Register for DataCamp &lt;https://www.datacamp.com/home&gt;`_
-</t>
-  </si>
-  <si>
-    <t>- `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_
-- `Debugging Tools &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/10_debugging_principles.html&gt;`_
-- `Python Debugger in VS Code &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/20_debugging_in_vscode.html&gt;`_
-- `variables v objects &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/vars_v_objects.html&gt;`_
-- `Python v. R &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/python_v_r.html&gt;`_</t>
-  </si>
-  <si>
     <t>**FALL BREAK**</t>
-  </si>
-  <si>
-    <t>- `Advanced Command Line &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/10_commandline/commandline_part2.html&gt;`_
-- `Python packages &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_4/30_managing_python_packages.html&gt;`_
-- `Git and Github &lt;git_and_github.ipynb&gt;`_
-- `Visualize Git Branches &lt;https://learngitbranching.js.org/&gt;`_</t>
   </si>
   <si>
     <t>- `Ex 1 &lt;exercises/Exercise_CommandLine_2_Advanced.ipynb&gt;`_
@@ -181,12 +149,6 @@
 - Packages</t>
   </si>
   <si>
-    <t>- Oopsie Resource: `Oh 💩, Git! &lt;https://ohshitgit.com/&gt;`_
-- `The secret of git &lt;https://xkcd.com/1597/&gt;`_
-- **SETUP 4:** `Jupyter in VS Code &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/00_setup_env/jupyter_in_vscode.html&gt;`_
-- **OPTIONAL SETUP:** `R Jupyter Notebooks &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/00_setup_env/jupyter_r_notebooks.html&gt;`_</t>
-  </si>
-  <si>
     <t>- Git Continued
 - Jupyter</t>
   </si>
@@ -194,38 +156,7 @@
     <t>- `Ex 1 &lt;exercises/Exercise_numpy_vectors.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- `Speed / Ease of Use Tradeoff &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_4/10_speed_and_ease_of_use.html&gt;`_
-- `Vectorization &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_4/11_vectorization.html&gt;`_
-- `Pandas: From Working with Tabular Data through Subsetting and Indexing with Single Square Brackets &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_2/00_intro_to_pandas.html&gt;`_</t>
-  </si>
-  <si>
-    <t>**More Numpy Concepts:**
-- `Views and Copies &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_3/10_views_and_copies.html&gt;`_
-- `When Do I Get a View &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_3/11_when_do_I_get_a_view.html&gt;`_
-- `Variables, Objects, and Numpy &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_3/13_objects_and_variables.html&gt;`_
-- `Views and Copies Recap &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_3/12_views_and_copies_recap.html&gt;`_
-- `Numbers in Computer &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/ints_and_floats.html&gt;`_
-**Matrices:**
-- `Matrices — From Welcome through Review of Matrices &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_3/00_welcome_to_week_3.html&gt;`_ (*see navigation bar on left*)
-**ND Arrays:**
-- `Arrays — From Welcome through Color Images as Arrays &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_3/40_nd_arrays.html&gt;`_ (*see navigation bar on left*)</t>
-  </si>
-  <si>
-    <t>- `Why numpy?  through Vector Subsetting Recap, SKIP Speed/Ease of Use Tradeoff and Vectorization &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_2/10_why_numpy.html&gt;`_</t>
-  </si>
-  <si>
     <t>- `Link &lt;exercises/Exercise_numpy_viewcopies.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Pandas DataFrames &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_2/30_pandas_dataframes.html&gt;`_
-- `Pandas DataFrame Gotchas &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_2/35_pandas_dataframe_gotchas.html&gt;`_
-- `PyArrow Backend &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_2/50_pandas_pyarrow.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- WM pp 136-142 (Indices, Section 5.2 up to MultiIndexes)
-- `Handling Missing Data &lt;https://jakevdp.github.io/PythonDataScienceHandbook/03.04-missing-values.html&gt;`_
-- `Views and Copies in Pandas through the View/Copy Headache without CoW &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_3/10_views_and_copies_numpy_review.html&gt;`_
-- `If you didn't read Tuesday: PyArrow Backend &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_2/50_pandas_pyarrow.html&gt;`_</t>
   </si>
   <si>
     <t>- `Link &lt;exercises/Exercise_dataframes.ipynb&gt;`_</t>
@@ -235,23 +166,12 @@
 - `Link 2 &lt;exercises/Exercise_missing.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- `Reading and Writing Data (plaintext AND binary) &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_3/00_plaintext_files.html&gt;`_
-- `Data Cleaning (through the missing data subsection on left side bar) &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_3/20_cleaning_identifying.html&gt;`_
-- `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
-  </si>
-  <si>
     <t>- `Link &lt;exercises/Exercise_cleaning.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- `Data Manipulations, Concatenating and Merging (NOT grouping or querying subsections on left navigation) &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_4/00_intro_to_querying_data.html&gt;`_</t>
-  </si>
-  <si>
     <t>- `Link &lt;exercises/Exercise_merging.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- `Plotting in Python through seaborn and Grammer of Graphics &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_5/week_2/10_plotting_in_python.html&gt;`_</t>
-  </si>
-  <si>
     <t>- Merging</t>
   </si>
   <si>
@@ -261,30 +181,7 @@
     <t>- `Link &lt;exercises/Exercise_plotting_part1.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- `Matplotlib &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_5/week_5/45_plotting_with_matplotlib.html&gt;`_
-- `Making Pretty Plots &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_5/week_5/46_making_plots_pretty.html&gt;`_
-- `Convert seaborn.objects to matplotlib axes &lt;https://seaborn.pydata.org/generated/seaborn.objects.Plot.on.html&gt;`_</t>
-  </si>
-  <si>
     <t>- `Link &lt;exercises/Exercise_plotting_part2.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `What is Big Data? &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/30_big_data/10_big_data_what_is_it.html&gt;`_
-- `Strategies for Big Data &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/30_big_data/20_big_data_strategies.html&gt;`_
-- Download the dataset linked at the top of the linked exercise before class.
-- `Parquet Format &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/30_big_data/30_parquet.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Workflow Management &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/workflow.html&gt;`_
-- `Backwards Design &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/backwards_design.html&gt;`_
-- `Getting Help &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/getting_help.html&gt;`_
-- `Opioid Project &lt;https://github.com/nickeubank/practicaldatascience/blob/master/opioid_project/PDS_ProjectSummary.pdf&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Defensive Programming &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/defensive_programming.html&gt;`_
-- `Iceberg Principle &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/iceberg_principle.html&gt;`_
-- `Groupby &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_4/20_grouping.html&gt;`_
-- WM pp Chpt 10, 10.1, 10.2, 10.3</t>
   </si>
   <si>
     <t>- WM 8.3
@@ -293,140 +190,234 @@
 - Categoricals: WM 12.1</t>
   </si>
   <si>
-    <t>- `Understanding Performance &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_4/10_speed_and_ease_of_use.html&gt;`_
-- `Improving Performance &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/30_big_data/50_performance_solutions.html&gt;`_
-- `Object dtypes &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/object_vectors.html&gt;`_
-- `Code Reviews &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/pr_review.html&gt;`_
+    <t>- `Link &lt;exercises/Exercise_groupby.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_reshaping.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_statsmodels.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_sklearn.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>Tues, Aug 27</t>
+  </si>
+  <si>
+    <t>Thurs, Aug 29</t>
+  </si>
+  <si>
+    <t>Tues, Sep 3</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 5</t>
+  </si>
+  <si>
+    <t>Tues, Sep 10</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 12</t>
+  </si>
+  <si>
+    <t>Tues, Sep 17</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 19</t>
+  </si>
+  <si>
+    <t>Tues, Sep 24</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 26</t>
+  </si>
+  <si>
+    <t>Tues, Oct 1</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 3</t>
+  </si>
+  <si>
+    <t>Tues, Oct 8</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 10</t>
+  </si>
+  <si>
+    <t>Tues, Oct 15</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 17</t>
+  </si>
+  <si>
+    <t>Tues, Oct 22</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 24</t>
+  </si>
+  <si>
+    <t>Tues, Oct 29</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 31</t>
+  </si>
+  <si>
+    <t>Tues, Nov 5</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 7</t>
+  </si>
+  <si>
+    <t>Tues, Nov 12</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 14</t>
+  </si>
+  <si>
+    <t>Tues, Nov 19</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 21</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_bigdata.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>**Discuss mid-semester project in class**</t>
+  </si>
+  <si>
+    <t>[finish groupby and reshaping exercises]</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_codeyourownlinearregression.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>**FALL BREAK** (Not technically, but take the week)</t>
+  </si>
+  <si>
+    <t>LAST CLASS</t>
+  </si>
+  <si>
+    <t>**Final Project Report Due**</t>
+  </si>
+  <si>
+    <t>Wed Dec 12</t>
+  </si>
+  <si>
+    <t>- **SETUP 1:** `Installing Python and miniconda &lt;../notebooks/PDS_not_yet_in_coursera/00_setup_env/setup_python.html&gt;`_
+- **SETUP 2:** `Installing and Configuring VS Code &lt;../notebooks/PDS_not_yet_in_coursera/00_setup_env/setup_vscode.html&gt;`_
+- `chatGPT and You &lt;../notebooks/PDS_not_yet_in_coursera/99_advice/llms.html&gt;`_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- **SETUP 3:** `Setup Augmented Command Line &lt;../notebooks/PDS_not_yet_in_coursera/00_setup_env/setup_augmented_commandline.html&gt;`_
+- `Command Line Basics &lt;../notebooks/PDS_not_yet_in_coursera/10_commandline/commandline_part1.html&gt;`_
+- `Read and sign syllabus, submit on gradescope &lt;https://github.com/nickeubank/practicaldatascience_book/raw/main/ids720_specific/syllabus/Syllabus_PracticalDataScience.pdf?download=&gt;`_
+- `Register with IPUMS &lt;https://uma.pop.umn.edu/usa/user/new&gt;`_
+- `Register for DataCamp &lt;https://www.datacamp.com/home&gt;`_
+</t>
+  </si>
+  <si>
+    <t>- `Advanced Command Line &lt;../notebooks/PDS_not_yet_in_coursera/10_commandline/commandline_part2.html&gt;`_
+- `Python packages &lt;../notebooks/class_2/week_4/30_managing_python_packages.html&gt;`_
+- `Git and Github &lt;git_and_github.ipynb&gt;`_
+- `Visualize Git Branches &lt;https://learngitbranching.js.org/&gt;`_</t>
+  </si>
+  <si>
+    <t>- Oopsie Resource: `Oh 💩, Git! &lt;https://ohshitgit.com/&gt;`_
+- `The secret of git &lt;https://xkcd.com/1597/&gt;`_
+- **SETUP 4:** `Jupyter in VS Code &lt;../notebooks/PDS_not_yet_in_coursera/00_setup_env/jupyter_in_vscode.html&gt;`_
+- **OPTIONAL SETUP:** `R Jupyter Notebooks &lt;../notebooks/PDS_not_yet_in_coursera/00_setup_env/jupyter_r_notebooks.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_
+- `Debugging Tools &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/10_debugging_principles.html&gt;`_
+- `Python Debugger in VS Code &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/20_debugging_in_vscode.html&gt;`_
+- `variables v objects &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/vars_v_objects.html&gt;`_
+- `Python v. R &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/python_v_r.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Why numpy?  through Vector Subsetting Recap, SKIP Speed/Ease of Use Tradeoff and Vectorization &lt;../notebooks/class_2/week_2/10_why_numpy.html&gt;`_</t>
+  </si>
+  <si>
+    <t>**More Numpy Concepts:**
+- `Views and Copies &lt;../notebooks/class_2/week_3/10_views_and_copies.html&gt;`_
+- `When Do I Get a View &lt;../notebooks/class_2/week_3/11_when_do_I_get_a_view.html&gt;`_
+- `Variables, Objects, and Numpy &lt;../notebooks/class_2/week_3/13_objects_and_variables.html&gt;`_
+- `Views and Copies Recap &lt;../notebooks/class_2/week_3/12_views_and_copies_recap.html&gt;`_
+- `Numbers in Computer &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/ints_and_floats.html&gt;`_
+**Matrices:**
+- `Matrices — From Welcome through Review of Matrices &lt;../notebooks/class_2/week_3/00_welcome_to_week_3.html&gt;`_ (*see navigation bar on left*)
+**ND Arrays:**
+- `Arrays — From Welcome through Color Images as Arrays &lt;../notebooks/class_2/week_3/40_nd_arrays.html&gt;`_ (*see navigation bar on left*)</t>
+  </si>
+  <si>
+    <t>- `Speed / Ease of Use Tradeoff &lt;../notebooks/class_2/week_4/10_speed_and_ease_of_use.html&gt;`_
+- `Vectorization &lt;../notebooks/class_2/week_4/11_vectorization.html&gt;`_
+- `Pandas: From Working with Tabular Data through Subsetting and Indexing with Single Square Brackets &lt;../notebooks/class_3/week_2/00_intro_to_pandas.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Pandas DataFrames &lt;../notebooks/class_3/week_2/30_pandas_dataframes.html&gt;`_
+- `Pandas DataFrame Gotchas &lt;../notebooks/class_3/week_2/35_pandas_dataframe_gotchas.html&gt;`_
+- `PyArrow Backend &lt;../notebooks/class_3/week_2/50_pandas_pyarrow.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- WM pp 136-142 (Indices, Section 5.2 up to MultiIndexes)
+- `Handling Missing Data &lt;https://jakevdp.github.io/PythonDataScienceHandbook/03.04-missing-values.html&gt;`_
+- `Views and Copies in Pandas through the View/Copy Headache without CoW &lt;../notebooks/class_3/week_3/10_views_and_copies_numpy_review.html&gt;`_
+- `If you didn't read Tuesday: PyArrow Backend &lt;../notebooks/class_3/week_2/50_pandas_pyarrow.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Reading and Writing Data (plaintext AND binary) &lt;../notebooks/class_3/week_3/00_plaintext_files.html&gt;`_
+- `Data Cleaning (through the missing data subsection on left side bar) &lt;../notebooks/class_3/week_3/20_cleaning_identifying.html&gt;`_
+- `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Data Manipulations, Concatenating and Merging (NOT grouping or querying subsections on left navigation) &lt;../notebooks/class_3/week_4/00_intro_to_querying_data.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Plotting in Python through seaborn and Grammer of Graphics &lt;../notebooks/class_5/week_2/10_plotting_in_python.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Matplotlib &lt;../notebooks/class_5/week_5/45_plotting_with_matplotlib.html&gt;`_
+- `Making Pretty Plots &lt;../notebooks/class_5/week_5/46_making_plots_pretty.html&gt;`_
+- `Convert seaborn.objects to matplotlib axes &lt;https://seaborn.pydata.org/generated/seaborn.objects.Plot.on.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `What is Big Data? &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/10_big_data_what_is_it.html&gt;`_
+- `Strategies for Big Data &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/20_big_data_strategies.html&gt;`_
+- Download the dataset linked at the top of the linked exercise before class.
+- `Parquet Format &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/30_parquet.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Workflow Management &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/workflow.html&gt;`_
+- `Backwards Design &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/backwards_design.html&gt;`_
+- `Getting Help &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/getting_help.html&gt;`_
+- `Opioid Project &lt;https://github.com/nickeubank/practicaldatascience/blob/master/opioid_project/PDS_ProjectSummary.pdf&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Defensive Programming &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/defensive_programming.html&gt;`_
+- `Iceberg Principle &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/iceberg_principle.html&gt;`_
+- `Groupby &lt;../notebooks/class_3/week_4/20_grouping.html&gt;`_
+- WM pp Chpt 10, 10.1, 10.2, 10.3</t>
+  </si>
+  <si>
+    <t>- `Understanding Performance &lt;../notebooks/class_2/week_4/10_speed_and_ease_of_use.html&gt;`_
+- `Improving Performance &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/50_performance_solutions.html&gt;`_
+- `Object dtypes &lt;../notebooks/PDS_not_yet_in_coursera/object_vectors.html&gt;`_
+- `Code Reviews &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/pr_review.html&gt;`_
 - **Project Strategy Plan Due**</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_groupby.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_reshaping.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_statsmodels.ipynb&gt;`_</t>
   </si>
   <si>
     <t>- Review linear regression as matrix manipulations. `Here's a nice review. &lt;https://www.stat.purdue.edu/~boli/stat512/lectures/topic3.pdf&gt;`_
 - `Review how to define classes &lt;https://realpython.com/python3-object-oriented-programming/&gt;`_
-- `Broadcasting Gotchyas &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_3/41_broadcasting.html#a-common-gotcha-narrow-matrices-v-1-dimensional-vectors&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_sklearn.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `conda Environments &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/conda_environments.html&gt;`_
-- `Parallel Computing &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/30_big_data/60_parallelism.html&gt;`_
-- `Distributed Computing with dask &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/30_big_data/70_dask.html&gt;`_
+- `Broadcasting Gotchyas &lt;../notebooks/class_2/week_3/41_broadcasting.html#a-common-gotcha-narrow-matrices-v-1-dimensional-vectors&gt;`_</t>
+  </si>
+  <si>
+    <t>- `conda Environments &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/conda_environments.html&gt;`_
+- `Parallel Computing &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/60_parallelism.html&gt;`_
+- `Distributed Computing with dask &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/70_dask.html&gt;`_
 (Note reading includes a 45 minute video to watch)
 - **Opioid Project Rough Draft Due**</t>
-  </si>
-  <si>
-    <t>Tues, Aug 27</t>
-  </si>
-  <si>
-    <t>Thurs, Aug 29</t>
-  </si>
-  <si>
-    <t>Fri, Aug 30</t>
-  </si>
-  <si>
-    <t>Tues, Sep 3</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 5</t>
-  </si>
-  <si>
-    <t>Tues, Sep 10</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 12</t>
-  </si>
-  <si>
-    <t>Tues, Sep 17</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 19</t>
-  </si>
-  <si>
-    <t>Tues, Sep 24</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 26</t>
-  </si>
-  <si>
-    <t>Tues, Oct 1</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 3</t>
-  </si>
-  <si>
-    <t>Tues, Oct 8</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 10</t>
-  </si>
-  <si>
-    <t>Tues, Oct 15</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 17</t>
-  </si>
-  <si>
-    <t>Tues, Oct 22</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 24</t>
-  </si>
-  <si>
-    <t>Tues, Oct 29</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 31</t>
-  </si>
-  <si>
-    <t>Tues, Nov 5</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 7</t>
-  </si>
-  <si>
-    <t>Tues, Nov 12</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 14</t>
-  </si>
-  <si>
-    <t>Tues, Nov 19</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 21</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_bigdata.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>**Discuss mid-semester project in class**</t>
-  </si>
-  <si>
-    <t>[finish groupby and reshaping exercises]</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_codeyourownlinearregression.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>**FALL BREAK** (Not technically, but take the week)</t>
-  </si>
-  <si>
-    <t>LAST CLASS</t>
-  </si>
-  <si>
-    <t>**Final Project Report Due**</t>
-  </si>
-  <si>
-    <t>Wed Dec 12</t>
   </si>
 </sst>
 </file>
@@ -829,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -859,362 +850,351 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="12" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="99" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="C4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="113" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="165" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="99" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="12" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="113" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="165" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>11</v>
+        <v>57</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>52</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="105" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>12</v>
+        <v>64</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="6" t="s">
         <v>96</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="105" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>18</v>
+        <v>65</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+      <c r="D20" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="D23" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="C24" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>27</v>
+        <v>70</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="135" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>102</v>
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05D0CCE6-370F-B64A-A86F-D0235D17A49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB388F2-B144-BF46-BC52-D4D6D26195B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2900" yWindow="760" windowWidth="26820" windowHeight="17640" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -86,12 +86,6 @@
 - Tracebacks</t>
   </si>
   <si>
-    <t>- Defensive Programming
-- Workflow
-- Backwards Design
-- Getting Help Online</t>
-  </si>
-  <si>
     <t>- Defining Your Own Estimators
 - Regex</t>
   </si>
@@ -136,23 +130,6 @@
     <t>**FALL BREAK**</t>
   </si>
   <si>
-    <t>- `Ex 1 &lt;exercises/Exercise_CommandLine_2_Advanced.ipynb&gt;`_
-- `Ex 2 &lt;exercises/Exercise_git.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Ex 1 &lt;exercises/Exercise_jupytervscode.ipynb&gt;`_
-- `Ex 2 &lt;exercises/Exercise_git_2.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- Advanced Command Line
-- Git
-- Packages</t>
-  </si>
-  <si>
-    <t>- Git Continued
-- Jupyter</t>
-  </si>
-  <si>
     <t>- `Ex 1 &lt;exercises/Exercise_numpy_vectors.ipynb&gt;`_</t>
   </si>
   <si>
@@ -281,9 +258,6 @@
   </si>
   <si>
     <t>- `Link &lt;exercises/Exercise_bigdata.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>**Discuss mid-semester project in class**</t>
   </si>
   <si>
     <t>[finish groupby and reshaping exercises]</t>
@@ -315,18 +289,6 @@
 - `Register with IPUMS &lt;https://uma.pop.umn.edu/usa/user/new&gt;`_
 - `Register for DataCamp &lt;https://www.datacamp.com/home&gt;`_
 </t>
-  </si>
-  <si>
-    <t>- `Advanced Command Line &lt;../notebooks/PDS_not_yet_in_coursera/10_commandline/commandline_part2.html&gt;`_
-- `Python packages &lt;../notebooks/class_2/week_4/30_managing_python_packages.html&gt;`_
-- `Git and Github &lt;git_and_github.ipynb&gt;`_
-- `Visualize Git Branches &lt;https://learngitbranching.js.org/&gt;`_</t>
-  </si>
-  <si>
-    <t>- Oopsie Resource: `Oh 💩, Git! &lt;https://ohshitgit.com/&gt;`_
-- `The secret of git &lt;https://xkcd.com/1597/&gt;`_
-- **SETUP 4:** `Jupyter in VS Code &lt;../notebooks/PDS_not_yet_in_coursera/00_setup_env/jupyter_in_vscode.html&gt;`_
-- **OPTIONAL SETUP:** `R Jupyter Notebooks &lt;../notebooks/PDS_not_yet_in_coursera/00_setup_env/jupyter_r_notebooks.html&gt;`_</t>
   </si>
   <si>
     <t>- `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_
@@ -389,12 +351,6 @@
 - `Parquet Format &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/30_parquet.html&gt;`_</t>
   </si>
   <si>
-    <t>- `Workflow Management &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/workflow.html&gt;`_
-- `Backwards Design &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/backwards_design.html&gt;`_
-- `Getting Help &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/getting_help.html&gt;`_
-- `Opioid Project &lt;https://github.com/nickeubank/practicaldatascience/blob/master/opioid_project/PDS_ProjectSummary.pdf&gt;`_</t>
-  </si>
-  <si>
     <t>- `Defensive Programming &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/defensive_programming.html&gt;`_
 - `Iceberg Principle &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/iceberg_principle.html&gt;`_
 - `Groupby &lt;../notebooks/class_3/week_4/20_grouping.html&gt;`_
@@ -418,6 +374,50 @@
 - `Distributed Computing with dask &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/70_dask.html&gt;`_
 (Note reading includes a 45 minute video to watch)
 - **Opioid Project Rough Draft Due**</t>
+  </si>
+  <si>
+    <t>- `Advanced Command Line &lt;../notebooks/PDS_not_yet_in_coursera/10_commandline/commandline_part2.html&gt;`_
+- `Python packages &lt;../notebooks/class_2/week_4/30_managing_python_packages.html&gt;`_
+- **SETUP 4:** `Jupyter in VS Code &lt;../notebooks/PDS_not_yet_in_coursera/00_setup_env/jupyter_in_vscode.html&gt;`_
+- **OPTIONAL SETUP:** `R Jupyter Notebooks &lt;../notebooks/PDS_not_yet_in_coursera/00_setup_env/jupyter_r_notebooks.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex 1 &lt;exercises/Exercise_CommandLine_2_Advanced.ipynb&gt;`_
+- `Ex 2 &lt;exercises/Exercise_jupytervscode.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- Advanced Command Line
+- Packages
+- Jupyter</t>
+  </si>
+  <si>
+    <t>- `Workflow Management &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/workflow.html&gt;`_
+- `Backwards Design &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/backwards_design.html&gt;`_
+- `Getting Help &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/getting_help.html&gt;`_
+- `Opioid Project &lt;https://github.com/nickeubank/practicaldatascience/blob/master/opioid_project/PDS_ProjectSummary.pdf&gt;`_
+- `Git and Github &lt;git_and_github.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- Defensive Programming
+- Workflow
+- Backwards Design
+- Getting Help Online
+- Git and Github</t>
+  </si>
+  <si>
+    <t>- Git Day 2</t>
+  </si>
+  <si>
+    <t>- `Visualize Git Branches &lt;https://learngitbranching.js.org/&gt;`_
+- Oopsie Resource: `Oh 💩, Git! &lt;https://ohshitgit.com/&gt;`_
+- `The secret of git &lt;https://xkcd.com/1597/&gt;`_</t>
+  </si>
+  <si>
+    <t>**Discuss mid-semester project in class**
+- `Ex 1 &lt;exercises/Exercise_git.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex &lt;exercises/Exercise_git_2.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -506,6 +506,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -822,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -850,351 +853,351 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="306" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="99" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="113" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="165" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="B8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>87</v>
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="71" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>41</v>
+      <c r="B15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>10</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+      <c r="D18" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
         <v>72</v>
-      </c>
-      <c r="B27" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB388F2-B144-BF46-BC52-D4D6D26195B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5355E845-7133-1F40-9615-055757A921A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2900" yWindow="760" windowWidth="26820" windowHeight="17640" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -79,9 +79,6 @@
     <t>- Machine Learning with sckikit-learn</t>
   </si>
   <si>
-    <t>- `Link &lt;exercises/Exercise_series.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- Pandas: Cleaning
 - Tracebacks</t>
   </si>
@@ -102,14 +99,7 @@
 - Packages</t>
   </si>
   <si>
-    <t>- `Ex &lt;exercises/Exercise_CommandLine_1_Basics.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- Numpy Arrays</t>
-  </si>
-  <si>
-    <t>- `Ex 1 &lt;exercises/Exercise_debugger.ipynb&gt;`_
-- `Ex 2 &lt;exercises/Exercise_variables_v_objects.ipynb&gt;`_</t>
   </si>
   <si>
     <t>- Defensive Programming
@@ -130,35 +120,10 @@
     <t>**FALL BREAK**</t>
   </si>
   <si>
-    <t>- `Ex 1 &lt;exercises/Exercise_numpy_vectors.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_numpy_viewcopies.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_dataframes.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link 1 &lt;exercises/Exercise_indices.ipynb&gt;`_
-- `Link 2 &lt;exercises/Exercise_missing.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_cleaning.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_merging.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- Merging</t>
   </si>
   <si>
     <t>- Plotting</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_plotting_part1.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_plotting_part2.ipynb&gt;`_</t>
   </si>
   <si>
     <t>- WM 8.3
@@ -167,18 +132,6 @@
 - Categoricals: WM 12.1</t>
   </si>
   <si>
-    <t>- `Link &lt;exercises/Exercise_groupby.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_reshaping.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_statsmodels.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_sklearn.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>Tues, Aug 27</t>
   </si>
   <si>
@@ -257,13 +210,7 @@
     <t>Thurs, Nov 21</t>
   </si>
   <si>
-    <t>- `Link &lt;exercises/Exercise_bigdata.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>[finish groupby and reshaping exercises]</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_codeyourownlinearregression.ipynb&gt;`_</t>
   </si>
   <si>
     <t>**FALL BREAK** (Not technically, but take the week)</t>
@@ -382,20 +329,9 @@
 - **OPTIONAL SETUP:** `R Jupyter Notebooks &lt;../notebooks/PDS_not_yet_in_coursera/00_setup_env/jupyter_r_notebooks.html&gt;`_</t>
   </si>
   <si>
-    <t>- `Ex 1 &lt;exercises/Exercise_CommandLine_2_Advanced.ipynb&gt;`_
-- `Ex 2 &lt;exercises/Exercise_jupytervscode.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- Advanced Command Line
 - Packages
 - Jupyter</t>
-  </si>
-  <si>
-    <t>- `Workflow Management &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/workflow.html&gt;`_
-- `Backwards Design &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/backwards_design.html&gt;`_
-- `Getting Help &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/getting_help.html&gt;`_
-- `Opioid Project &lt;https://github.com/nickeubank/practicaldatascience/blob/master/opioid_project/PDS_ProjectSummary.pdf&gt;`_
-- `Git and Github &lt;git_and_github.ipynb&gt;`_</t>
   </si>
   <si>
     <t>- Defensive Programming
@@ -413,11 +349,75 @@
 - `The secret of git &lt;https://xkcd.com/1597/&gt;`_</t>
   </si>
   <si>
+    <t>- `Ex &lt;./exercises/Exercise_CommandLine_1_Basics.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex 1 &lt;exercises/Exercise_CommandLine_2_Advanced.html&gt;`_
+- `Ex 2 &lt;exercises/Exercise_jupytervscode.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex 1 &lt;exercises/Exercise_debugger.html&gt;`_
+- `Ex 2 &lt;exercises/Exercise_variables_v_objects.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex 1 &lt;exercises/Exercise_numpy_vectors.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_numpy_viewcopies.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_series.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_dataframes.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link 1 &lt;exercises/Exercise_indices.html&gt;`_
+- `Link 2 &lt;exercises/Exercise_missing.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_cleaning.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_plotting_part1.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_plotting_part2.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_merging.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_bigdata.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Workflow Management &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/workflow.html&gt;`_
+- `Backwards Design &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/backwards_design.html&gt;`_
+- `Getting Help &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/getting_help.html&gt;`_
+- `Opioid Project &lt;https://github.com/nickeubank/practicaldatascience/blob/master/opioid_project/PDS_ProjectSummary.pdf&gt;`_
+- `Git and Github &lt;git_and_github.html&gt;`_</t>
+  </si>
+  <si>
     <t>**Discuss mid-semester project in class**
-- `Ex 1 &lt;exercises/Exercise_git.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Ex &lt;exercises/Exercise_git_2.ipynb&gt;`_</t>
+- `Ex 1 &lt;exercises/Exercise_git.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex &lt;exercises/Exercise_git_2.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_groupby.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_reshaping.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_statsmodels.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_sklearn.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_codeyourownlinearregression.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -853,351 +853,351 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="306" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5355E845-7133-1F40-9615-055757A921A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5F551D-BA8A-C646-938A-BEA2CEFB8A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="760" windowWidth="26820" windowHeight="17640" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="2900" yWindow="760" windowWidth="34580" windowHeight="19180" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="102">
   <si>
     <t>Topic</t>
   </si>
@@ -349,9 +349,6 @@
 - `The secret of git &lt;https://xkcd.com/1597/&gt;`_</t>
   </si>
   <si>
-    <t>- `Ex &lt;./exercises/Exercise_CommandLine_1_Basics.html&gt;`_</t>
-  </si>
-  <si>
     <t>- `Ex 1 &lt;exercises/Exercise_CommandLine_2_Advanced.html&gt;`_
 - `Ex 2 &lt;exercises/Exercise_jupytervscode.html&gt;`_</t>
   </si>
@@ -418,6 +415,12 @@
   </si>
   <si>
     <t>- `Link &lt;exercises/Exercise_codeyourownlinearregression.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex &lt;exercises/Exercise_CommandLine_1_Basics.html&gt;`_</t>
+  </si>
+  <si>
+    <t>Storage</t>
   </si>
 </sst>
 </file>
@@ -823,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -834,10 +837,10 @@
     <col min="1" max="1" width="33.1640625" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="105.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="57.1640625" customWidth="1"/>
+    <col min="4" max="5" width="57.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -850,8 +853,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -862,8 +868,9 @@
         <v>58</v>
       </c>
       <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -874,10 +881,13 @@
         <v>59</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="71" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -888,10 +898,13 @@
         <v>75</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -902,10 +915,13 @@
         <v>60</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>31</v>
       </c>
@@ -916,10 +932,13 @@
         <v>61</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="306" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="306" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>32</v>
       </c>
@@ -930,10 +949,13 @@
         <v>62</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>33</v>
       </c>
@@ -944,10 +966,13 @@
         <v>63</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>34</v>
       </c>
@@ -958,10 +983,13 @@
         <v>64</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="71" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>35</v>
       </c>
@@ -972,10 +1000,13 @@
         <v>65</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>36</v>
       </c>
@@ -986,10 +1017,13 @@
         <v>66</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>37</v>
       </c>
@@ -1000,10 +1034,13 @@
         <v>68</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>38</v>
       </c>
@@ -1014,10 +1051,13 @@
         <v>69</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>39</v>
       </c>
@@ -1028,10 +1068,13 @@
         <v>67</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>40</v>
       </c>
@@ -1042,10 +1085,13 @@
         <v>70</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>41</v>
       </c>
@@ -1053,7 +1099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>42</v>
       </c>
@@ -1061,7 +1107,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>43</v>
       </c>
@@ -1069,13 +1115,16 @@
         <v>77</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="E18" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>44</v>
       </c>
@@ -1086,10 +1135,13 @@
         <v>79</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>45</v>
       </c>
@@ -1100,10 +1152,13 @@
         <v>71</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>46</v>
       </c>
@@ -1114,10 +1169,13 @@
         <v>26</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>47</v>
       </c>
@@ -1130,8 +1188,11 @@
       <c r="D22" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="E22" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>48</v>
       </c>
@@ -1142,10 +1203,13 @@
         <v>22</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>49</v>
       </c>
@@ -1156,10 +1220,13 @@
         <v>21</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>50</v>
       </c>
@@ -1170,10 +1237,13 @@
         <v>73</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="75" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>51</v>
       </c>
@@ -1184,7 +1254,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>52</v>
       </c>
@@ -1192,7 +1262,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>57</v>
       </c>

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5F551D-BA8A-C646-938A-BEA2CEFB8A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5BCA69-9AD6-6C49-A7EC-8AA2E2D6A5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2900" yWindow="760" windowWidth="34580" windowHeight="19180" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
   <si>
     <t>Topic</t>
   </si>
@@ -236,16 +236,6 @@
 - `Register with IPUMS &lt;https://uma.pop.umn.edu/usa/user/new&gt;`_
 - `Register for DataCamp &lt;https://www.datacamp.com/home&gt;`_
 </t>
-  </si>
-  <si>
-    <t>- `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_
-- `Debugging Tools &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/10_debugging_principles.html&gt;`_
-- `Python Debugger in VS Code &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/20_debugging_in_vscode.html&gt;`_
-- `variables v objects &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/vars_v_objects.html&gt;`_
-- `Python v. R &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/python_v_r.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Why numpy?  through Vector Subsetting Recap, SKIP Speed/Ease of Use Tradeoff and Vectorization &lt;../notebooks/class_2/week_2/10_why_numpy.html&gt;`_</t>
   </si>
   <si>
     <t>**More Numpy Concepts:**
@@ -420,7 +410,16 @@
     <t>- `Ex &lt;exercises/Exercise_CommandLine_1_Basics.html&gt;`_</t>
   </si>
   <si>
-    <t>Storage</t>
+    <t>- `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_
+- `Debugging Tools &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/10_debugging_principles.html&gt;`_
+- `Python Debugger in VS Code &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/20_debugging_in_vscode.html&gt;`_
+- `variables v objects &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/vars_v_objects.html&gt;`_
+- `Ergonomics &lt;../notebooks/PDS_not_yet_in_coursera/99_advice/ergonomics_and_adaptive_tech.html&gt;`_
+- `Python v. R &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/python_v_r.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Why numpy?  through Vector Subsetting Recap, SKIP Speed/Ease of Use Tradeoff and Vectorization &lt;../notebooks/class_2/week_2/10_why_numpy.html&gt;`_
+- `Writing Good Notebooks &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/writing_good_jupyter_notebooks.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -826,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -837,10 +836,10 @@
     <col min="1" max="1" width="33.1640625" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="105.5" style="5" customWidth="1"/>
-    <col min="4" max="5" width="57.1640625" customWidth="1"/>
+    <col min="4" max="4" width="57.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -853,11 +852,8 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="288" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -868,9 +864,8 @@
         <v>58</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -881,30 +876,24 @@
         <v>59</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="71" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -912,16 +901,13 @@
         <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>31</v>
       </c>
@@ -929,16 +915,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="306" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="306" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>32</v>
       </c>
@@ -946,16 +929,13 @@
         <v>19</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>33</v>
       </c>
@@ -963,16 +943,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="118" customHeight="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>34</v>
       </c>
@@ -980,16 +957,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="71" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>35</v>
       </c>
@@ -997,16 +971,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>36</v>
       </c>
@@ -1014,16 +985,13 @@
         <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>37</v>
       </c>
@@ -1031,16 +999,13 @@
         <v>25</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="43" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>38</v>
       </c>
@@ -1048,16 +1013,13 @@
         <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>39</v>
       </c>
@@ -1065,16 +1027,13 @@
         <v>24</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>40</v>
       </c>
@@ -1082,16 +1041,13 @@
         <v>10</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>41</v>
       </c>
@@ -1099,7 +1055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>42</v>
       </c>
@@ -1107,41 +1063,35 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>45</v>
       </c>
@@ -1149,16 +1099,13 @@
         <v>20</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="106" customHeight="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>46</v>
       </c>
@@ -1169,13 +1116,10 @@
         <v>26</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="140" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>47</v>
       </c>
@@ -1183,16 +1127,13 @@
         <v>11</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>48</v>
       </c>
@@ -1203,13 +1144,10 @@
         <v>22</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="134" customHeight="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>49</v>
       </c>
@@ -1220,13 +1158,10 @@
         <v>21</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="103" customHeight="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>50</v>
       </c>
@@ -1234,16 +1169,13 @@
         <v>15</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>51</v>
       </c>
@@ -1251,10 +1183,10 @@
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>52</v>
       </c>
@@ -1262,7 +1194,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>57</v>
       </c>

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5BCA69-9AD6-6C49-A7EC-8AA2E2D6A5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C04530-7243-9D48-8524-7D94228BD05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2900" yWindow="760" windowWidth="34580" windowHeight="19180" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -418,7 +418,8 @@
 - `Python v. R &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/python_v_r.html&gt;`_</t>
   </si>
   <si>
-    <t>- `Why numpy?  through Vector Subsetting Recap, SKIP Speed/Ease of Use Tradeoff and Vectorization &lt;../notebooks/class_2/week_2/10_why_numpy.html&gt;`_
+    <t>- Under the numpy heading, `read everything under Vectors EXCEPT Speed/Ease of Use Tradeoff and Vectorization &lt;../notebooks/class_2/week_2/10_why_numpy.html&gt;`_
+- Under the numpy heading, also read everything under `Subsetting Vectors &lt;../notebooks/class_2/week_2/10_why_numpy.html&gt;`_
 - `Writing Good Notebooks &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/writing_good_jupyter_notebooks.html&gt;`_</t>
   </si>
 </sst>
@@ -827,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -907,7 +908,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>31</v>
       </c>

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C04530-7243-9D48-8524-7D94228BD05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A4D98C-0332-C240-8709-61B1D0E467AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="760" windowWidth="34580" windowHeight="19180" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -331,14 +331,6 @@
 - Git and Github</t>
   </si>
   <si>
-    <t>- Git Day 2</t>
-  </si>
-  <si>
-    <t>- `Visualize Git Branches &lt;https://learngitbranching.js.org/&gt;`_
-- Oopsie Resource: `Oh 💩, Git! &lt;https://ohshitgit.com/&gt;`_
-- `The secret of git &lt;https://xkcd.com/1597/&gt;`_</t>
-  </si>
-  <si>
     <t>- `Ex 1 &lt;exercises/Exercise_CommandLine_2_Advanced.html&gt;`_
 - `Ex 2 &lt;exercises/Exercise_jupytervscode.html&gt;`_</t>
   </si>
@@ -378,18 +370,8 @@
     <t>- `Link &lt;exercises/Exercise_bigdata.html&gt;`_</t>
   </si>
   <si>
-    <t>- `Workflow Management &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/workflow.html&gt;`_
-- `Backwards Design &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/backwards_design.html&gt;`_
-- `Getting Help &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/getting_help.html&gt;`_
-- `Opioid Project &lt;https://github.com/nickeubank/practicaldatascience/blob/master/opioid_project/PDS_ProjectSummary.pdf&gt;`_
-- `Git and Github &lt;git_and_github.html&gt;`_</t>
-  </si>
-  <si>
     <t>**Discuss mid-semester project in class**
 - `Ex 1 &lt;exercises/Exercise_git.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Ex &lt;exercises/Exercise_git_2.html&gt;`_</t>
   </si>
   <si>
     <t>- `Link &lt;exercises/Exercise_groupby.html&gt;`_</t>
@@ -421,6 +403,22 @@
     <t>- Under the numpy heading, `read everything under Vectors EXCEPT Speed/Ease of Use Tradeoff and Vectorization &lt;../notebooks/class_2/week_2/10_why_numpy.html&gt;`_
 - Under the numpy heading, also read everything under `Subsetting Vectors &lt;../notebooks/class_2/week_2/10_why_numpy.html&gt;`_
 - `Writing Good Notebooks &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/writing_good_jupyter_notebooks.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Workflow Management &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/workflow.html&gt;`_
+- `Backwards Design &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/backwards_design.html&gt;`_
+- `Getting Help &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/getting_help.html&gt;`_
+- `Opioid Project &lt;https://github.com/nickeubank/practicaldatascience/blob/master/opioid_project/PDS_ProjectSummary.pdf&gt;`_</t>
+  </si>
+  <si>
+    <t>- Git</t>
+  </si>
+  <si>
+    <t>- `Git and Github &lt;../PDS_not_yet_in_coursera/10_commandline/git_and_github.html&gt;`_
+- `Visualize Git Branches &lt;https://learngitbranching.js.org/&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex 1 &lt;exercises/Exercise_git.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -828,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -877,7 +875,7 @@
         <v>59</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -891,7 +889,7 @@
         <v>73</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.2">
@@ -902,52 +900,52 @@
         <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="306" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="306" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>61</v>
+        <v>19</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
@@ -955,97 +953,97 @@
         <v>34</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>67</v>
+      <c r="C13" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="B14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>89</v>
+      <c r="B15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1064,32 +1062,32 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>75</v>
+      <c r="B18" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>92</v>
+      <c r="B19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.2">
@@ -1103,7 +1101,7 @@
         <v>69</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
@@ -1117,7 +1115,7 @@
         <v>26</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
@@ -1145,7 +1143,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
@@ -1159,7 +1157,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
@@ -1173,7 +1171,7 @@
         <v>71</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.2">

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A4D98C-0332-C240-8709-61B1D0E467AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59AA0A5F-9A80-FB4A-BA86-49367F77C27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -339,12 +339,6 @@
 - `Ex 2 &lt;exercises/Exercise_variables_v_objects.html&gt;`_</t>
   </si>
   <si>
-    <t>- `Ex 1 &lt;exercises/Exercise_numpy_vectors.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_numpy_viewcopies.html&gt;`_</t>
-  </si>
-  <si>
     <t>- `Link &lt;exercises/Exercise_series.html&gt;`_</t>
   </si>
   <si>
@@ -414,11 +408,19 @@
     <t>- Git</t>
   </si>
   <si>
-    <t>- `Git and Github &lt;../PDS_not_yet_in_coursera/10_commandline/git_and_github.html&gt;`_
+    <t>- `Ex 1 &lt;exercises/Exercise_git.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Git and Github &lt;../notebooks/PDS_not_yet_in_coursera/10_commandline/git_and_github.html&gt;`_
 - `Visualize Git Branches &lt;https://learngitbranching.js.org/&gt;`_</t>
   </si>
   <si>
-    <t>- `Ex 1 &lt;exercises/Exercise_git.html&gt;`_</t>
+    <t>- `Ex 1 &lt;exercises/Exercise_git_2.html&gt;`_
+- `Ex 2 &lt;exercises/Exercise_numpy_vectors.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex 1 &lt;exercises/Exercise_numpy_viewcopies.html&gt;`_
+- (Finish other numpy)</t>
   </si>
 </sst>
 </file>
@@ -826,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -875,7 +877,7 @@
         <v>59</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -900,7 +902,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>77</v>
@@ -911,13 +913,13 @@
         <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>99</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -928,10 +930,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="306" x14ac:dyDescent="0.2">
@@ -944,8 +946,8 @@
       <c r="C8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>79</v>
+      <c r="D8" s="8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
@@ -959,7 +961,7 @@
         <v>61</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="43" x14ac:dyDescent="0.2">
@@ -973,7 +975,7 @@
         <v>62</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -987,7 +989,7 @@
         <v>63</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.2">
@@ -1001,7 +1003,7 @@
         <v>64</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1015,7 +1017,7 @@
         <v>66</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="43" x14ac:dyDescent="0.2">
@@ -1029,7 +1031,7 @@
         <v>67</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1043,7 +1045,7 @@
         <v>65</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1073,7 +1075,7 @@
         <v>68</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -1084,10 +1086,10 @@
         <v>75</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.2">
@@ -1101,7 +1103,7 @@
         <v>69</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
@@ -1115,7 +1117,7 @@
         <v>26</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
@@ -1143,7 +1145,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
@@ -1157,7 +1159,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
@@ -1171,7 +1173,7 @@
         <v>71</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.2">

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59AA0A5F-9A80-FB4A-BA86-49367F77C27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E514AB-4BF8-A94C-85AA-06BEEFE49305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -411,16 +411,19 @@
     <t>- `Ex 1 &lt;exercises/Exercise_git.html&gt;`_</t>
   </si>
   <si>
-    <t>- `Git and Github &lt;../notebooks/PDS_not_yet_in_coursera/10_commandline/git_and_github.html&gt;`_
-- `Visualize Git Branches &lt;https://learngitbranching.js.org/&gt;`_</t>
-  </si>
-  <si>
     <t>- `Ex 1 &lt;exercises/Exercise_git_2.html&gt;`_
 - `Ex 2 &lt;exercises/Exercise_numpy_vectors.html&gt;`_</t>
   </si>
   <si>
     <t>- `Ex 1 &lt;exercises/Exercise_numpy_viewcopies.html&gt;`_
 - (Finish other numpy)</t>
+  </si>
+  <si>
+    <t>- `Git and Github &lt;../notebooks/PDS_not_yet_in_coursera/10_commandline/git_and_github.html&gt;`_
+- `Create an ssh key and register with ssh-agent (you don't need to create a passphrase) &lt;https://docs.github.com/en/authentication/connecting-to-github-with-ssh/generating-a-new-ssh-key-and-adding-it-to-the-ssh-agent&gt;`_
+- If you don't have a github account, make one. Register a passkey or at least two factor authentication.
+- `Add your ssh key to your github account &lt;https://docs.github.com/en/authentication/connecting-to-github-with-ssh/adding-a-new-ssh-key-to-your-github-account&gt;`_
+- `Visualize Git Branches &lt;https://learngitbranching.js.org/&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -828,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -908,7 +911,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>31</v>
       </c>
@@ -916,7 +919,7 @@
         <v>96</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>97</v>
@@ -933,7 +936,7 @@
         <v>94</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="306" x14ac:dyDescent="0.2">
@@ -947,7 +950,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E514AB-4BF8-A94C-85AA-06BEEFE49305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287B2FD7-472C-6F4A-A58E-54CD190F5065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -238,18 +238,6 @@
 </t>
   </si>
   <si>
-    <t>**More Numpy Concepts:**
-- `Views and Copies &lt;../notebooks/class_2/week_3/10_views_and_copies.html&gt;`_
-- `When Do I Get a View &lt;../notebooks/class_2/week_3/11_when_do_I_get_a_view.html&gt;`_
-- `Variables, Objects, and Numpy &lt;../notebooks/class_2/week_3/13_objects_and_variables.html&gt;`_
-- `Views and Copies Recap &lt;../notebooks/class_2/week_3/12_views_and_copies_recap.html&gt;`_
-- `Numbers in Computer &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/ints_and_floats.html&gt;`_
-**Matrices:**
-- `Matrices — From Welcome through Review of Matrices &lt;../notebooks/class_2/week_3/00_welcome_to_week_3.html&gt;`_ (*see navigation bar on left*)
-**ND Arrays:**
-- `Arrays — From Welcome through Color Images as Arrays &lt;../notebooks/class_2/week_3/40_nd_arrays.html&gt;`_ (*see navigation bar on left*)</t>
-  </si>
-  <si>
     <t>- `Speed / Ease of Use Tradeoff &lt;../notebooks/class_2/week_4/10_speed_and_ease_of_use.html&gt;`_
 - `Vectorization &lt;../notebooks/class_2/week_4/11_vectorization.html&gt;`_
 - `Pandas: From Working with Tabular Data through Subsetting and Indexing with Single Square Brackets &lt;../notebooks/class_3/week_2/00_intro_to_pandas.html&gt;`_</t>
@@ -394,11 +382,6 @@
 - `Python v. R &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/python_v_r.html&gt;`_</t>
   </si>
   <si>
-    <t>- Under the numpy heading, `read everything under Vectors EXCEPT Speed/Ease of Use Tradeoff and Vectorization &lt;../notebooks/class_2/week_2/10_why_numpy.html&gt;`_
-- Under the numpy heading, also read everything under `Subsetting Vectors &lt;../notebooks/class_2/week_2/10_why_numpy.html&gt;`_
-- `Writing Good Notebooks &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/writing_good_jupyter_notebooks.html&gt;`_</t>
-  </si>
-  <si>
     <t>- `Workflow Management &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/workflow.html&gt;`_
 - `Backwards Design &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/backwards_design.html&gt;`_
 - `Getting Help &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/getting_help.html&gt;`_
@@ -424,6 +407,23 @@
 - If you don't have a github account, make one. Register a passkey or at least two factor authentication.
 - `Add your ssh key to your github account &lt;https://docs.github.com/en/authentication/connecting-to-github-with-ssh/adding-a-new-ssh-key-to-your-github-account&gt;`_
 - `Visualize Git Branches &lt;https://learngitbranching.js.org/&gt;`_</t>
+  </si>
+  <si>
+    <t>- Under the numpy heading, `read everything under Vectors EXCEPT Speed/Ease of Use Tradeoff and Vectorization &lt;../notebooks/class_2/week_2/10_why_numpy.html&gt;`_
+- Under the numpy heading, also read everything under `Subsetting Vectors &lt;../notebooks/class_2/week_2/10_why_numpy.html&gt;`_
+- `Numbers in Computers &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/ints_and_floats.html&gt;`_
+- `Writing Good Notebooks &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/writing_good_jupyter_notebooks.html&gt;`_</t>
+  </si>
+  <si>
+    <t>**More Numpy Concepts:**
+- `Views and Copies &lt;../notebooks/class_2/week_3/10_views_and_copies.html&gt;`_
+- `When Do I Get a View &lt;../notebooks/class_2/week_3/11_when_do_I_get_a_view.html&gt;`_
+- `Variables, Objects, and Numpy &lt;../notebooks/class_2/week_3/13_objects_and_variables.html&gt;`_
+- `Views and Copies Recap &lt;../notebooks/class_2/week_3/12_views_and_copies_recap.html&gt;`_
+**Matrices:**
+- `Matrices — From Welcome through Review of Matrices &lt;../notebooks/class_2/week_3/00_welcome_to_week_3.html&gt;`_ (*see navigation bar on left*)
+**ND Arrays:**
+- `Arrays — From Welcome through Color Images as Arrays &lt;../notebooks/class_2/week_3/40_nd_arrays.html&gt;`_ (*see navigation bar on left*)</t>
   </si>
 </sst>
 </file>
@@ -831,7 +831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -880,7 +880,7 @@
         <v>59</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -888,13 +888,13 @@
         <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.2">
@@ -905,10 +905,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="136" x14ac:dyDescent="0.2">
@@ -916,16 +916,16 @@
         <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>32</v>
       </c>
@@ -933,13 +933,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="306" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="272" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>33</v>
       </c>
@@ -947,10 +947,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
@@ -961,10 +961,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="43" x14ac:dyDescent="0.2">
@@ -975,10 +975,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -989,10 +989,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.2">
@@ -1003,10 +1003,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1017,10 +1017,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="43" x14ac:dyDescent="0.2">
@@ -1031,10 +1031,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1045,10 +1045,10 @@
         <v>24</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1075,10 +1075,10 @@
         <v>10</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -1086,13 +1086,13 @@
         <v>44</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.2">
@@ -1103,10 +1103,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
@@ -1120,7 +1120,7 @@
         <v>26</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
@@ -1131,7 +1131,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>53</v>
@@ -1148,7 +1148,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
@@ -1162,7 +1162,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
@@ -1173,10 +1173,10 @@
         <v>15</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.2">
@@ -1187,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287B2FD7-472C-6F4A-A58E-54CD190F5065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F616C34-B550-9143-884A-497FE9BD97AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17660" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -238,22 +238,6 @@
 </t>
   </si>
   <si>
-    <t>- `Speed / Ease of Use Tradeoff &lt;../notebooks/class_2/week_4/10_speed_and_ease_of_use.html&gt;`_
-- `Vectorization &lt;../notebooks/class_2/week_4/11_vectorization.html&gt;`_
-- `Pandas: From Working with Tabular Data through Subsetting and Indexing with Single Square Brackets &lt;../notebooks/class_3/week_2/00_intro_to_pandas.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Pandas DataFrames &lt;../notebooks/class_3/week_2/30_pandas_dataframes.html&gt;`_
-- `Pandas DataFrame Gotchas &lt;../notebooks/class_3/week_2/35_pandas_dataframe_gotchas.html&gt;`_
-- `PyArrow Backend &lt;../notebooks/class_3/week_2/50_pandas_pyarrow.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- WM pp 136-142 (Indices, Section 5.2 up to MultiIndexes)
-- `Handling Missing Data &lt;https://jakevdp.github.io/PythonDataScienceHandbook/03.04-missing-values.html&gt;`_
-- `Views and Copies in Pandas through the View/Copy Headache without CoW &lt;../notebooks/class_3/week_3/10_views_and_copies_numpy_review.html&gt;`_
-- `If you didn't read Tuesday: PyArrow Backend &lt;../notebooks/class_3/week_2/50_pandas_pyarrow.html&gt;`_</t>
-  </si>
-  <si>
     <t>- `Reading and Writing Data (plaintext AND binary) &lt;../notebooks/class_3/week_3/00_plaintext_files.html&gt;`_
 - `Data Cleaning (through the missing data subsection on left side bar) &lt;../notebooks/class_3/week_3/20_cleaning_identifying.html&gt;`_
 - `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
@@ -424,6 +408,22 @@
 - `Matrices — From Welcome through Review of Matrices &lt;../notebooks/class_2/week_3/00_welcome_to_week_3.html&gt;`_ (*see navigation bar on left*)
 **ND Arrays:**
 - `Arrays — From Welcome through Color Images as Arrays &lt;../notebooks/class_2/week_3/40_nd_arrays.html&gt;`_ (*see navigation bar on left*)</t>
+  </si>
+  <si>
+    <t>- `Speed / Ease of Use Tradeoff &lt;../notebooks/class_2/week_4/10_speed_and_ease_of_use.html&gt;`_
+- `Vectorization &lt;../notebooks/class_2/week_4/11_vectorization.html&gt;`_
+- Under Pandas, Read from `From Working with Tabular Data &lt;../notebooks/class_3/week_2/00_intro_to_pandas.html&gt;`_ through `Subsetting and Indexing with Single Square Brackets &lt;../notebooks/class_3/week_2/16_indexing_with_brackets.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Indices &lt;../notebooks/class_3/week_3/07_indices.html&gt;`_
+- `Handling Missing Data &lt;../notebooks/class_3/35_cleaning_missing_data.html&gt;`_
+- `Views and Copies in Pandas &lt;../notebooks/class_3/week_3/10_views_and_copies_numpy_review.html&gt;`_ through `the View/Copy Headache without CoW &lt;../notebooks/class_3/week_3/17_views_and_copies_in_pandas_wo_CoW.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Object Datatypes &lt;../notebooks/class_3/week_2/18_object_dtype.html&gt;`_
+- Pandas DataFrame readings from `Working with tabular data through Dataframes &lt;../notebooks/class_3/week_2/30_pandas_dataframes.html&gt;`_ through `Subsetting Tricks and Gotchas &lt;../notebooks/class_3/week_2/35_pandas_dataframe_gotchas.html&gt;`_
+- `Categorical Datatype &lt;../notebooks/class_3/week_2/45_categorical_dtype.html&gt;`_
+- `PyArrow Backend &lt;../notebooks/class_3/week_2/50_pandas_pyarrow.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -880,7 +880,7 @@
         <v>59</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -888,13 +888,13 @@
         <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.2">
@@ -905,10 +905,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="136" x14ac:dyDescent="0.2">
@@ -916,13 +916,13 @@
         <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -933,10 +933,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="272" x14ac:dyDescent="0.2">
@@ -947,10 +947,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
@@ -961,13 +961,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>35</v>
       </c>
@@ -975,13 +975,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>36</v>
       </c>
@@ -989,10 +989,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.2">
@@ -1003,10 +1003,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1017,10 +1017,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="43" x14ac:dyDescent="0.2">
@@ -1031,10 +1031,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1045,10 +1045,10 @@
         <v>24</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1075,10 +1075,10 @@
         <v>10</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -1086,13 +1086,13 @@
         <v>44</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.2">
@@ -1103,10 +1103,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
@@ -1120,7 +1120,7 @@
         <v>26</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
@@ -1131,7 +1131,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>53</v>
@@ -1148,7 +1148,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
@@ -1162,7 +1162,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
@@ -1173,10 +1173,10 @@
         <v>15</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.2">
@@ -1187,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F616C34-B550-9143-884A-497FE9BD97AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48285B80-F0C2-CD4E-8B07-8237D89912DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17660" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -238,11 +238,6 @@
 </t>
   </si>
   <si>
-    <t>- `Reading and Writing Data (plaintext AND binary) &lt;../notebooks/class_3/week_3/00_plaintext_files.html&gt;`_
-- `Data Cleaning (through the missing data subsection on left side bar) &lt;../notebooks/class_3/week_3/20_cleaning_identifying.html&gt;`_
-- `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
-  </si>
-  <si>
     <t>- `Data Manipulations, Concatenating and Merging (NOT grouping or querying subsections on left navigation) &lt;../notebooks/class_3/week_4/00_intro_to_querying_data.html&gt;`_</t>
   </si>
   <si>
@@ -415,15 +410,20 @@
 - Under Pandas, Read from `From Working with Tabular Data &lt;../notebooks/class_3/week_2/00_intro_to_pandas.html&gt;`_ through `Subsetting and Indexing with Single Square Brackets &lt;../notebooks/class_3/week_2/16_indexing_with_brackets.html&gt;`_</t>
   </si>
   <si>
-    <t>- `Indices &lt;../notebooks/class_3/week_3/07_indices.html&gt;`_
-- `Handling Missing Data &lt;../notebooks/class_3/35_cleaning_missing_data.html&gt;`_
-- `Views and Copies in Pandas &lt;../notebooks/class_3/week_3/10_views_and_copies_numpy_review.html&gt;`_ through `the View/Copy Headache without CoW &lt;../notebooks/class_3/week_3/17_views_and_copies_in_pandas_wo_CoW.html&gt;`_</t>
-  </si>
-  <si>
     <t>- `Object Datatypes &lt;../notebooks/class_3/week_2/18_object_dtype.html&gt;`_
 - Pandas DataFrame readings from `Working with tabular data through Dataframes &lt;../notebooks/class_3/week_2/30_pandas_dataframes.html&gt;`_ through `Subsetting Tricks and Gotchas &lt;../notebooks/class_3/week_2/35_pandas_dataframe_gotchas.html&gt;`_
 - `Categorical Datatype &lt;../notebooks/class_3/week_2/45_categorical_dtype.html&gt;`_
 - `PyArrow Backend &lt;../notebooks/class_3/week_2/50_pandas_pyarrow.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Indices &lt;../notebooks/class_3/week_3/07_indices.html&gt;`_
+- `Views and Copies in Pandas &lt;../notebooks/class_3/week_3/10_views_and_copies_numpy_review.html&gt;`_ through `the View/Copy Headache without CoW &lt;../notebooks/class_3/week_3/17_views_and_copies_in_pandas_wo_CoW.html&gt;`_
+- Reading and Writing Data: `Read from Ways To Store and Read Data &lt;../notebooks/class_3/week_3/00_plaintext_files.html&gt;`_ through ways to `Store and Read Binary Data &lt;../notebooks/class_3/week_3/05_binary_files.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- Data Cleaning  from `Identifying Problems &lt;../notebooks/class_3/week_3/20_cleaning_identifying.html&gt;`_ through `Missing Data &lt;../notebooks/class_3/week_3/35_cleaning_missing_data.html&gt;`_
+- `f-strings &lt;../notebooks/other/fstrings.html&gt;`_
+- `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -880,7 +880,7 @@
         <v>59</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -888,13 +888,13 @@
         <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.2">
@@ -905,10 +905,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="136" x14ac:dyDescent="0.2">
@@ -916,13 +916,13 @@
         <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -933,10 +933,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="272" x14ac:dyDescent="0.2">
@@ -947,10 +947,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
@@ -961,10 +961,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -975,13 +975,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>36</v>
       </c>
@@ -992,7 +992,7 @@
         <v>99</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.2">
@@ -1003,10 +1003,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1017,10 +1017,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="43" x14ac:dyDescent="0.2">
@@ -1031,10 +1031,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1045,10 +1045,10 @@
         <v>24</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1075,10 +1075,10 @@
         <v>10</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -1086,13 +1086,13 @@
         <v>44</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.2">
@@ -1103,10 +1103,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
@@ -1120,7 +1120,7 @@
         <v>26</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
@@ -1131,7 +1131,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>53</v>
@@ -1148,7 +1148,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
@@ -1162,7 +1162,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
@@ -1173,10 +1173,10 @@
         <v>15</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.2">
@@ -1187,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48285B80-F0C2-CD4E-8B07-8237D89912DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD35B80C-C53F-BB48-926B-93CB8943EFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17660" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -418,10 +418,11 @@
   <si>
     <t>- `Indices &lt;../notebooks/class_3/week_3/07_indices.html&gt;`_
 - `Views and Copies in Pandas &lt;../notebooks/class_3/week_3/10_views_and_copies_numpy_review.html&gt;`_ through `the View/Copy Headache without CoW &lt;../notebooks/class_3/week_3/17_views_and_copies_in_pandas_wo_CoW.html&gt;`_
-- Reading and Writing Data: `Read from Ways To Store and Read Data &lt;../notebooks/class_3/week_3/00_plaintext_files.html&gt;`_ through ways to `Store and Read Binary Data &lt;../notebooks/class_3/week_3/05_binary_files.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- Data Cleaning  from `Identifying Problems &lt;../notebooks/class_3/week_3/20_cleaning_identifying.html&gt;`_ through `Missing Data &lt;../notebooks/class_3/week_3/35_cleaning_missing_data.html&gt;`_
+- Reading and Writing Data: `Read from Ways To Store and Read Data &lt;../notebooks/class_3/week_3/00_plaintext_files.html&gt;`_ through ways to `Store and Read Binary Data &lt;../notebooks/class_3/week_3/05_binary_files.html&gt;`_
+- `Missing Data &lt;../notebooks/class_3/week_3/35_cleaning_missing_data.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- Data Cleaning  from `Identifying Problems &lt;../notebooks/class_3/week_3/20_cleaning_identifying.html&gt;`_ through `Cleaning Data Types &lt;../notebooks/class_3/week_3/33_cleaning_datatypes.html&gt;`_
 - `f-strings &lt;../notebooks/other/fstrings.html&gt;`_
 - `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
   </si>
@@ -832,7 +833,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -981,7 +982,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>36</v>
       </c>

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD35B80C-C53F-BB48-926B-93CB8943EFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97989B1F-7B4F-744C-B768-B2C7ACEC88A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17660" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -241,14 +241,6 @@
     <t>- `Data Manipulations, Concatenating and Merging (NOT grouping or querying subsections on left navigation) &lt;../notebooks/class_3/week_4/00_intro_to_querying_data.html&gt;`_</t>
   </si>
   <si>
-    <t>- `Plotting in Python through seaborn and Grammer of Graphics &lt;../notebooks/class_5/week_2/10_plotting_in_python.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Matplotlib &lt;../notebooks/class_5/week_5/45_plotting_with_matplotlib.html&gt;`_
-- `Making Pretty Plots &lt;../notebooks/class_5/week_5/46_making_plots_pretty.html&gt;`_
-- `Convert seaborn.objects to matplotlib axes &lt;https://seaborn.pydata.org/generated/seaborn.objects.Plot.on.html&gt;`_</t>
-  </si>
-  <si>
     <t>- `What is Big Data? &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/10_big_data_what_is_it.html&gt;`_
 - `Strategies for Big Data &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/20_big_data_strategies.html&gt;`_
 - Download the dataset linked at the top of the linked exercise before class.
@@ -425,6 +417,21 @@
     <t>- Data Cleaning  from `Identifying Problems &lt;../notebooks/class_3/week_3/20_cleaning_identifying.html&gt;`_ through `Cleaning Data Types &lt;../notebooks/class_3/week_3/33_cleaning_datatypes.html&gt;`_
 - `f-strings &lt;../notebooks/other/fstrings.html&gt;`_
 - `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Plotting Principles &lt;../notebooks/class_5/week_1/1.1.2_effective_plotting_practices.html&gt;`_
+- `Matplotlib Basics &lt;../notebooks/class_5/week_1/1.2.1_basic_plotting_with_matplotlib.html&gt;`_
+- `Matplotlib Vocabulary &lt;../notebooks/class_5/week_1/1.2.2_ten_figure_pieces.html&gt;`_
+- `Explicit v Implict &lt;../notebooks/class_5/week_1/1.4.5_explicit_vs_implicit_syntax.html&gt;`_
+- `Saving Plots &lt;../notebooks/class_5/week_1/1.4.4_saving_to_file.html&gt;`_
+- `Making Pretty Plots &lt;../notebooks/class_5/week_5/46_making_plots_pretty.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Plotting in Python through seaborn and Grammer of Graphics &lt;../notebooks/class_5/week_1/2.3.1_plotting_with_seaborn.html&gt;`_
+- `seaborn recipes &lt;../notebooks/class_5/week_1/2.3.2_seaborn_recipes.html&gt;`_
+- `Customizing matplotlib &lt;../notebooks/class_5/week_1/2.1.2_customizing_plot_styles.html&gt;`_
+- `Making Pretty Plots 1 &lt;../notebooks/class_5/week_1/2.2.1_making_plots_pretty_1.html&gt;`_
+- `Making Pretty Plots 2 &lt;../notebooks/class_5/week_1/2.2.2_making_plots_pretty_2.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -832,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -881,7 +888,7 @@
         <v>59</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -889,13 +896,13 @@
         <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.2">
@@ -906,10 +913,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="136" x14ac:dyDescent="0.2">
@@ -917,13 +924,13 @@
         <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -934,10 +941,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="272" x14ac:dyDescent="0.2">
@@ -948,10 +955,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
@@ -962,10 +969,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -976,10 +983,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -990,10 +997,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.2">
@@ -1004,38 +1011,38 @@
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>61</v>
+      <c r="C13" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>62</v>
+      <c r="C14" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1049,7 +1056,7 @@
         <v>60</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1076,10 +1083,10 @@
         <v>10</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -1087,13 +1094,13 @@
         <v>44</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.2">
@@ -1104,10 +1111,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
@@ -1121,7 +1128,7 @@
         <v>26</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
@@ -1132,7 +1139,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>53</v>
@@ -1149,7 +1156,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
@@ -1163,7 +1170,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
@@ -1174,10 +1181,10 @@
         <v>15</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.2">
@@ -1188,7 +1195,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97989B1F-7B4F-744C-B768-B2C7ACEC88A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1750361-FF68-1C4A-95CB-2D56754E73A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17660" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -419,19 +419,18 @@
 - `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
   </si>
   <si>
-    <t>- `Plotting Principles &lt;../notebooks/class_5/week_1/1.1.2_effective_plotting_practices.html&gt;`_
-- `Matplotlib Basics &lt;../notebooks/class_5/week_1/1.2.1_basic_plotting_with_matplotlib.html&gt;`_
-- `Matplotlib Vocabulary &lt;../notebooks/class_5/week_1/1.2.2_ten_figure_pieces.html&gt;`_
-- `Explicit v Implict &lt;../notebooks/class_5/week_1/1.4.5_explicit_vs_implicit_syntax.html&gt;`_
-- `Saving Plots &lt;../notebooks/class_5/week_1/1.4.4_saving_to_file.html&gt;`_
-- `Making Pretty Plots &lt;../notebooks/class_5/week_5/46_making_plots_pretty.html&gt;`_</t>
-  </si>
-  <si>
     <t>- `Plotting in Python through seaborn and Grammer of Graphics &lt;../notebooks/class_5/week_1/2.3.1_plotting_with_seaborn.html&gt;`_
 - `seaborn recipes &lt;../notebooks/class_5/week_1/2.3.2_seaborn_recipes.html&gt;`_
 - `Customizing matplotlib &lt;../notebooks/class_5/week_1/2.1.2_customizing_plot_styles.html&gt;`_
 - `Making Pretty Plots 1 &lt;../notebooks/class_5/week_1/2.2.1_making_plots_pretty_1.html&gt;`_
 - `Making Pretty Plots 2 &lt;../notebooks/class_5/week_1/2.2.2_making_plots_pretty_2.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Plotting Principles &lt;../notebooks/class_5/week_1/1.1.2_effective_plotting_practices.html&gt;`_
+- `Matplotlib Basics &lt;../notebooks/class_5/week_1/1.2.1_basic_plotting_with_matplotlib.html&gt;`_
+- `Matplotlib Vocabulary &lt;../notebooks/class_5/week_1/1.2.2_ten_figure_pieces.html&gt;`_
+- `Explicit v Implict &lt;../notebooks/class_5/week_1/1.4.5_explicit_vs_implicit_syntax.html&gt;`_
+- `Saving Plots &lt;../notebooks/class_5/week_1/1.4.4_saving_to_file.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1016,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>38</v>
       </c>
@@ -1025,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>75</v>
@@ -1039,7 +1038,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>76</v>

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1750361-FF68-1C4A-95CB-2D56754E73A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA274E4D-2A78-804C-8CCF-2D354440F1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17660" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -419,18 +419,19 @@
 - `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
   </si>
   <si>
-    <t>- `Plotting in Python through seaborn and Grammer of Graphics &lt;../notebooks/class_5/week_1/2.3.1_plotting_with_seaborn.html&gt;`_
-- `seaborn recipes &lt;../notebooks/class_5/week_1/2.3.2_seaborn_recipes.html&gt;`_
-- `Customizing matplotlib &lt;../notebooks/class_5/week_1/2.1.2_customizing_plot_styles.html&gt;`_
-- `Making Pretty Plots 1 &lt;../notebooks/class_5/week_1/2.2.1_making_plots_pretty_1.html&gt;`_
-- `Making Pretty Plots 2 &lt;../notebooks/class_5/week_1/2.2.2_making_plots_pretty_2.html&gt;`_</t>
-  </si>
-  <si>
     <t>- `Plotting Principles &lt;../notebooks/class_5/week_1/1.1.2_effective_plotting_practices.html&gt;`_
 - `Matplotlib Basics &lt;../notebooks/class_5/week_1/1.2.1_basic_plotting_with_matplotlib.html&gt;`_
 - `Matplotlib Vocabulary &lt;../notebooks/class_5/week_1/1.2.2_ten_figure_pieces.html&gt;`_
 - `Explicit v Implict &lt;../notebooks/class_5/week_1/1.4.5_explicit_vs_implicit_syntax.html&gt;`_
 - `Saving Plots &lt;../notebooks/class_5/week_1/1.4.4_saving_to_file.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Plotting in Python through seaborn and Grammer of Graphics &lt;../notebooks/class_5/week_1/2.3.1_plotting_with_seaborn.html&gt;`_
+- `seaborn recipes &lt;../notebooks/class_5/week_1/2.3.2_seaborn_recipes.html&gt;`_
+- `Customizing matplotlib &lt;../notebooks/class_5/week_1/2.1.2_customizing_plot_styles.html&gt;`_
+- `Making Pretty Plots 1 &lt;../notebooks/class_5/week_1/2.2.1_making_plots_pretty_1.html&gt;`_
+- `Making Pretty Plots 2 &lt;../notebooks/class_5/week_1/2.2.2_making_plots_pretty_2.html&gt;`_
+- `Pandas Plotting &lt;../notebooks/class_5/week_1/1.6.1_plotting_with_pandas.html&gt;`)</t>
   </si>
 </sst>
 </file>
@@ -839,7 +840,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1024,13 +1025,13 @@
         <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>39</v>
       </c>
@@ -1038,7 +1039,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>76</v>

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA274E4D-2A78-804C-8CCF-2D354440F1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1668CCD5-9179-6547-A218-25EFA0A40DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -431,7 +431,7 @@
 - `Customizing matplotlib &lt;../notebooks/class_5/week_1/2.1.2_customizing_plot_styles.html&gt;`_
 - `Making Pretty Plots 1 &lt;../notebooks/class_5/week_1/2.2.1_making_plots_pretty_1.html&gt;`_
 - `Making Pretty Plots 2 &lt;../notebooks/class_5/week_1/2.2.2_making_plots_pretty_2.html&gt;`_
-- `Pandas Plotting &lt;../notebooks/class_5/week_1/1.6.1_plotting_with_pandas.html&gt;`)</t>
+- `Pandas Plotting &lt;../notebooks/class_5/week_1/1.6.1_plotting_with_pandas.html&gt;`</t>
   </si>
 </sst>
 </file>
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1668CCD5-9179-6547-A218-25EFA0A40DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D5EDA3-47CF-D949-B2B0-22376D2E9961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -431,7 +431,7 @@
 - `Customizing matplotlib &lt;../notebooks/class_5/week_1/2.1.2_customizing_plot_styles.html&gt;`_
 - `Making Pretty Plots 1 &lt;../notebooks/class_5/week_1/2.2.1_making_plots_pretty_1.html&gt;`_
 - `Making Pretty Plots 2 &lt;../notebooks/class_5/week_1/2.2.2_making_plots_pretty_2.html&gt;`_
-- `Pandas Plotting &lt;../notebooks/class_5/week_1/1.6.1_plotting_with_pandas.html&gt;`</t>
+- `Pandas Plotting &lt;../notebooks/class_5/week_1/1.6.1_plotting_with_pandas.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D5EDA3-47CF-D949-B2B0-22376D2E9961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB3BA3C-A825-EE43-A497-602B5FC11CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB3BA3C-A825-EE43-A497-602B5FC11CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB4B8B4-34AF-3841-9961-5B333D57EA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -238,9 +238,6 @@
 </t>
   </si>
   <si>
-    <t>- `Data Manipulations, Concatenating and Merging (NOT grouping or querying subsections on left navigation) &lt;../notebooks/class_3/week_4/00_intro_to_querying_data.html&gt;`_</t>
-  </si>
-  <si>
     <t>- `What is Big Data? &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/10_big_data_what_is_it.html&gt;`_
 - `Strategies for Big Data &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/20_big_data_strategies.html&gt;`_
 - Download the dataset linked at the top of the linked exercise before class.
@@ -432,6 +429,11 @@
 - `Making Pretty Plots 1 &lt;../notebooks/class_5/week_1/2.2.1_making_plots_pretty_1.html&gt;`_
 - `Making Pretty Plots 2 &lt;../notebooks/class_5/week_1/2.2.2_making_plots_pretty_2.html&gt;`_
 - `Pandas Plotting &lt;../notebooks/class_5/week_1/1.6.1_plotting_with_pandas.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Combining, Grouping and Querying &lt;../notebooks/class_3/week_4/00_intro_to_querying_data.html&gt;`_
+- `Concatenating &lt;../notebooks/class_3/week_4/10_combining_concatenating.html&gt;`_
+- `Merging/Joins &lt;../notebooks/class_3/week_4/15_combining_merging.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -840,7 +842,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -888,7 +890,7 @@
         <v>59</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -896,13 +898,13 @@
         <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.2">
@@ -913,10 +915,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="136" x14ac:dyDescent="0.2">
@@ -924,13 +926,13 @@
         <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -941,10 +943,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="272" x14ac:dyDescent="0.2">
@@ -955,10 +957,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
@@ -969,10 +971,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -983,10 +985,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -997,10 +999,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.2">
@@ -1011,10 +1013,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -1025,10 +1027,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.2">
@@ -1039,13 +1041,13 @@
         <v>25</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>40</v>
       </c>
@@ -1053,10 +1055,10 @@
         <v>24</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1083,10 +1085,10 @@
         <v>10</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -1094,13 +1096,13 @@
         <v>44</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.2">
@@ -1111,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
@@ -1128,7 +1130,7 @@
         <v>26</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
@@ -1139,7 +1141,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>53</v>
@@ -1156,7 +1158,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
@@ -1170,7 +1172,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
@@ -1181,10 +1183,10 @@
         <v>15</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.2">
@@ -1195,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB4B8B4-34AF-3841-9961-5B333D57EA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3754E0-323B-9846-B7F6-4F3C240B1818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -433,7 +433,10 @@
   <si>
     <t>- `Combining, Grouping and Querying &lt;../notebooks/class_3/week_4/00_intro_to_querying_data.html&gt;`_
 - `Concatenating &lt;../notebooks/class_3/week_4/10_combining_concatenating.html&gt;`_
-- `Merging/Joins &lt;../notebooks/class_3/week_4/15_combining_merging.html&gt;`_</t>
+- `Merging/Joins &lt;../notebooks/class_3/week_4/15_combining_merging.html&gt;`_
+- `Merging Part 2 &lt;../notebooks/class_3/week_4/15.1_combining_merging_continued.html&gt;`_
+- `Merging Example &lt;../notebooks/class_3/week_4/15.2_combining_merging_practical_example.html&gt;`_
+- `Merge Validation &lt;../notebooks/class_3/week_4/15.3_validating_a_merge.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1050,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>40</v>
       </c>

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3754E0-323B-9846-B7F6-4F3C240B1818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECF5AF0-773F-2A48-9BE7-80E0E81D7D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -244,12 +244,6 @@
 - `Parquet Format &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/30_parquet.html&gt;`_</t>
   </si>
   <si>
-    <t>- `Defensive Programming &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/defensive_programming.html&gt;`_
-- `Iceberg Principle &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/iceberg_principle.html&gt;`_
-- `Groupby &lt;../notebooks/class_3/week_4/20_grouping.html&gt;`_
-- WM pp Chpt 10, 10.1, 10.2, 10.3</t>
-  </si>
-  <si>
     <t>- `Understanding Performance &lt;../notebooks/class_2/week_4/10_speed_and_ease_of_use.html&gt;`_
 - `Improving Performance &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/50_performance_solutions.html&gt;`_
 - `Object dtypes &lt;../notebooks/PDS_not_yet_in_coursera/object_vectors.html&gt;`_
@@ -318,10 +312,6 @@
   </si>
   <si>
     <t>- `Link &lt;exercises/Exercise_bigdata.html&gt;`_</t>
-  </si>
-  <si>
-    <t>**Discuss mid-semester project in class**
-- `Ex 1 &lt;exercises/Exercise_git.html&gt;`_</t>
   </si>
   <si>
     <t>- `Link &lt;exercises/Exercise_groupby.html&gt;`_</t>
@@ -348,12 +338,6 @@
 - `variables v objects &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/vars_v_objects.html&gt;`_
 - `Ergonomics &lt;../notebooks/PDS_not_yet_in_coursera/99_advice/ergonomics_and_adaptive_tech.html&gt;`_
 - `Python v. R &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/python_v_r.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Workflow Management &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/workflow.html&gt;`_
-- `Backwards Design &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/backwards_design.html&gt;`_
-- `Getting Help &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/getting_help.html&gt;`_
-- `Opioid Project &lt;https://github.com/nickeubank/practicaldatascience/blob/master/opioid_project/PDS_ProjectSummary.pdf&gt;`_</t>
   </si>
   <si>
     <t>- Git</t>
@@ -437,6 +421,20 @@
 - `Merging Part 2 &lt;../notebooks/class_3/week_4/15.1_combining_merging_continued.html&gt;`_
 - `Merging Example &lt;../notebooks/class_3/week_4/15.2_combining_merging_practical_example.html&gt;`_
 - `Merge Validation &lt;../notebooks/class_3/week_4/15.3_validating_a_merge.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Workflow Management &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/workflow.html&gt;`_
+- `Backwards Design &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/backwards_design.html&gt;`_
+- `Getting Help &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/getting_help.html&gt;`_</t>
+  </si>
+  <si>
+    <t>**Discuss mid-semester project in class**
+- `Opioid Project &lt;https://github.com/nickeubank/practicaldatascience_book/blob/main/ids720_specific/opioids/PDS_ProjectSummary.pdf&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Defensive Programming &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/defensive_programming.html&gt;`_
+- `Iceberg Principle &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/iceberg_principle.html&gt;`_
+- `Groupby &lt;../notebooks/class_3/week_4/20_grouping.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -844,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -893,7 +891,7 @@
         <v>59</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -901,13 +899,13 @@
         <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.2">
@@ -918,10 +916,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="136" x14ac:dyDescent="0.2">
@@ -929,13 +927,13 @@
         <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -946,10 +944,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="272" x14ac:dyDescent="0.2">
@@ -960,10 +958,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
@@ -974,10 +972,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -988,10 +986,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -1002,10 +1000,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.2">
@@ -1016,10 +1014,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -1030,10 +1028,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.2">
@@ -1044,10 +1042,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
@@ -1058,10 +1056,10 @@
         <v>24</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1091,7 +1089,7 @@
         <v>60</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -1099,16 +1097,16 @@
         <v>44</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>45</v>
       </c>
@@ -1116,10 +1114,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
@@ -1133,7 +1131,7 @@
         <v>26</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
@@ -1144,7 +1142,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>53</v>
@@ -1161,7 +1159,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
@@ -1175,7 +1173,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
@@ -1186,10 +1184,10 @@
         <v>15</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.2">
@@ -1200,7 +1198,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECF5AF0-773F-2A48-9BE7-80E0E81D7D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5935C0C-6038-774C-A524-05A6D66B54B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t>Topic</t>
   </si>
@@ -124,12 +124,6 @@
   </si>
   <si>
     <t>- Plotting</t>
-  </si>
-  <si>
-    <t>- WM 8.3
-- `Pandas reshaping (with pics!) &lt;https://pandas.pydata.org/pandas-docs/stable/user_guide/reshaping.html&gt;`_
-- `What is goal of reshaping? &lt;http://vita.had.co.nz/papers/tidy-data.html&gt;`_
-- Categoricals: WM 12.1</t>
   </si>
   <si>
     <t>Tues, Aug 27</t>
@@ -435,6 +429,16 @@
     <t>- `Defensive Programming &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/defensive_programming.html&gt;`_
 - `Iceberg Principle &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/iceberg_principle.html&gt;`_
 - `Groupby &lt;../notebooks/class_3/week_4/20_grouping.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- WM 8.3
+- `Pandas reshaping (with pics!) &lt;https://pandas.pydata.org/pandas-docs/stable/user_guide/reshaping.html&gt;`_
+- `What is goal of reshaping? &lt;http://vita.had.co.nz/papers/tidy-data.html&gt;`_
+- Categoricals: WM 12.1
+- OPIOID PROJECT OUTLINE DUE</t>
+  </si>
+  <si>
+    <t>- ROUGH DRAFT OF OPIOID PROJECT DUE</t>
   </si>
 </sst>
 </file>
@@ -842,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -870,201 +874,201 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="272" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -1072,85 +1076,85 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>12</v>
@@ -1159,12 +1163,12 @@
         <v>22</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>13</v>
@@ -1173,48 +1177,51 @@
         <v>21</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5935C0C-6038-774C-A524-05A6D66B54B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00C4143-C114-4549-A227-B5D94A0B653F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -426,11 +426,6 @@
 - `Opioid Project &lt;https://github.com/nickeubank/practicaldatascience_book/blob/main/ids720_specific/opioids/PDS_ProjectSummary.pdf&gt;`_</t>
   </si>
   <si>
-    <t>- `Defensive Programming &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/defensive_programming.html&gt;`_
-- `Iceberg Principle &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/iceberg_principle.html&gt;`_
-- `Groupby &lt;../notebooks/class_3/week_4/20_grouping.html&gt;`_</t>
-  </si>
-  <si>
     <t>- WM 8.3
 - `Pandas reshaping (with pics!) &lt;https://pandas.pydata.org/pandas-docs/stable/user_guide/reshaping.html&gt;`_
 - `What is goal of reshaping? &lt;http://vita.had.co.nz/papers/tidy-data.html&gt;`_
@@ -439,6 +434,10 @@
   </si>
   <si>
     <t>- ROUGH DRAFT OF OPIOID PROJECT DUE</t>
+  </si>
+  <si>
+    <t>- Defensive Programming: from `first reading &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/defensive_programming.html&gt;`_ through `Iceberg Principle &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/iceberg_principle.html&gt;`_
+- `Groupby &lt;../notebooks/class_3/week_4/20_grouping.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -846,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1118,7 +1117,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>76</v>
@@ -1132,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>77</v>
@@ -1213,7 +1212,7 @@
         <v>54</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00C4143-C114-4549-A227-B5D94A0B653F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC27C8DE-029D-5C45-99D6-C0A26FBA9E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -426,18 +426,17 @@
 - `Opioid Project &lt;https://github.com/nickeubank/practicaldatascience_book/blob/main/ids720_specific/opioids/PDS_ProjectSummary.pdf&gt;`_</t>
   </si>
   <si>
-    <t>- WM 8.3
-- `Pandas reshaping (with pics!) &lt;https://pandas.pydata.org/pandas-docs/stable/user_guide/reshaping.html&gt;`_
-- `What is goal of reshaping? &lt;http://vita.had.co.nz/papers/tidy-data.html&gt;`_
-- Categoricals: WM 12.1
-- OPIOID PROJECT OUTLINE DUE</t>
-  </si>
-  <si>
     <t>- ROUGH DRAFT OF OPIOID PROJECT DUE</t>
   </si>
   <si>
     <t>- Defensive Programming: from `first reading &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/defensive_programming.html&gt;`_ through `Iceberg Principle &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/iceberg_principle.html&gt;`_
 - `Groupby &lt;../notebooks/class_3/week_4/20_grouping.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- Wes McKinney's *Python for Data Analysis*, Third Edition, Chapter 8, Section 3. Available `online through duke library free &lt;https://learning.oreilly.com/library/view/python-for-data/9781098104023/ch08.html#prep_reshape&gt;`_
+- `Tidy Data Format: the goal of reshaping &lt;http://vita.had.co.nz/papers/tidy-data.html&gt;`_
+- `Pandas reshaping (with pics!) &lt;https://pandas.pydata.org/pandas-docs/stable/user_guide/reshaping.html&gt;`_
+- OPIOID PROJECT OUTLINE DUE</t>
   </si>
 </sst>
 </file>
@@ -845,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1117,7 +1116,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>76</v>
@@ -1131,7 +1130,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>77</v>
@@ -1212,7 +1211,7 @@
         <v>54</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC27C8DE-029D-5C45-99D6-C0A26FBA9E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183D80EF-8B07-0749-A684-54A6AC3F98F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
   <si>
     <t>Topic</t>
   </si>
@@ -109,14 +109,6 @@
     <t>- JVP Chapter 5 up to "Hyperparameters and Model Validation" Section (pp 331 - 359)</t>
   </si>
   <si>
-    <t>- WM, 3rd Edition, Chapter 12, 12.1, 12.2, 12.3 (Patsy and statsmodels, not scikit-learn)
-- `Skim "Linear Models" &lt;https://www.statsmodels.org/stable/regression.html&gt;`_
-- `Skim "Discrete Dep Var Models" &lt;https://www.statsmodels.org/stable/discretemod.html&gt;`_
-- `Regression Diagnostics &lt;https://www.statsmodels.org/stable/examples/notebooks/generated/regression_diagnostics.html&gt;`_
-- `Regression Plots &lt;https://www.statsmodels.org/stable/examples/notebooks/generated/regression_plots.html&gt;`_
-- `Patsy: Differences from R &lt;https://patsy.readthedocs.io/en/latest/R-comparison.html&gt;`_</t>
-  </si>
-  <si>
     <t>**FALL BREAK**</t>
   </si>
   <si>
@@ -202,9 +194,6 @@
   </si>
   <si>
     <t>Thurs, Nov 21</t>
-  </si>
-  <si>
-    <t>[finish groupby and reshaping exercises]</t>
   </si>
   <si>
     <t>**FALL BREAK** (Not technically, but take the week)</t>
@@ -236,13 +225,6 @@
 - `Strategies for Big Data &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/20_big_data_strategies.html&gt;`_
 - Download the dataset linked at the top of the linked exercise before class.
 - `Parquet Format &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/30_parquet.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Understanding Performance &lt;../notebooks/class_2/week_4/10_speed_and_ease_of_use.html&gt;`_
-- `Improving Performance &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/50_performance_solutions.html&gt;`_
-- `Object dtypes &lt;../notebooks/PDS_not_yet_in_coursera/object_vectors.html&gt;`_
-- `Code Reviews &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/pr_review.html&gt;`_
-- **Project Strategy Plan Due**</t>
   </si>
   <si>
     <t>- Review linear regression as matrix manipulations. `Here's a nice review. &lt;https://www.stat.purdue.edu/~boli/stat512/lectures/topic3.pdf&gt;`_
@@ -435,8 +417,18 @@
   <si>
     <t>- Wes McKinney's *Python for Data Analysis*, Third Edition, Chapter 8, Section 3. Available `online through duke library free &lt;https://learning.oreilly.com/library/view/python-for-data/9781098104023/ch08.html#prep_reshape&gt;`_
 - `Tidy Data Format: the goal of reshaping &lt;http://vita.had.co.nz/papers/tidy-data.html&gt;`_
-- `Pandas reshaping (with pics!) &lt;https://pandas.pydata.org/pandas-docs/stable/user_guide/reshaping.html&gt;`_
-- OPIOID PROJECT OUTLINE DUE</t>
+- `Pandas reshaping (with pics!) &lt;https://pandas.pydata.org/pandas-docs/stable/user_guide/reshaping.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- **Project Strategy Plan Due**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- `Understanding Performance &lt;../notebooks/class_2/week_4/10_speed_and_ease_of_use.html&gt;`_
+- `Improving Performance &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/50_performance_solutions.html&gt;`_
+- `Code Reviews &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/pr_review.html&gt;`_
+- `Skim "Linear Models" &lt;https://www.statsmodels.org/stable/regression.html&gt;`_
+- `Skim "Discrete Dep Var Models" &lt;https://www.statsmodels.org/stable/discretemod.html&gt;`_
+</t>
   </si>
 </sst>
 </file>
@@ -844,7 +836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -872,301 +864,299 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="272" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>52</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>13</v>
@@ -1175,51 +1165,51 @@
         <v>21</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183D80EF-8B07-0749-A684-54A6AC3F98F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E86A6E-1D0C-C145-9F6F-74A229B28184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="2940" yWindow="3500" windowWidth="30240" windowHeight="17340" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -423,12 +423,10 @@
     <t>- **Project Strategy Plan Due**</t>
   </si>
   <si>
-    <t xml:space="preserve">- `Understanding Performance &lt;../notebooks/class_2/week_4/10_speed_and_ease_of_use.html&gt;`_
+    <t>- `Understanding Performance &lt;../notebooks/class_2/week_4/10_speed_and_ease_of_use.html&gt;`_
 - `Improving Performance &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/50_performance_solutions.html&gt;`_
 - `Code Reviews &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/pr_review.html&gt;`_
-- `Skim "Linear Models" &lt;https://www.statsmodels.org/stable/regression.html&gt;`_
-- `Skim "Discrete Dep Var Models" &lt;https://www.statsmodels.org/stable/discretemod.html&gt;`_
-</t>
+- Read all readings under the Statistical Modelling heading, starting with `Inference and Prediction &lt;../notebooks/class_5/week_3/20_inference_v_prediction.html`_ through `Beyond the Basic Model &lt;../notebooks/class_5/week_3/40_linear_regression_extensions&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -837,7 +835,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E86A6E-1D0C-C145-9F6F-74A229B28184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A77BAAF-A59E-6544-B686-D1A44505E2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="3500" windowWidth="30240" windowHeight="17340" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -426,7 +426,7 @@
     <t>- `Understanding Performance &lt;../notebooks/class_2/week_4/10_speed_and_ease_of_use.html&gt;`_
 - `Improving Performance &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/50_performance_solutions.html&gt;`_
 - `Code Reviews &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/pr_review.html&gt;`_
-- Read all readings under the Statistical Modelling heading, starting with `Inference and Prediction &lt;../notebooks/class_5/week_3/20_inference_v_prediction.html`_ through `Beyond the Basic Model &lt;../notebooks/class_5/week_3/40_linear_regression_extensions&gt;`_</t>
+- Read all readings under the Statistical Modelling heading, starting with `Inference and Prediction &lt;../notebooks/class_5/week_3/20_inference_v_prediction.html&gt;`_ through `Beyond the Basic Model &lt;../notebooks/class_5/week_3/40_linear_regression_extensions&gt;`_</t>
   </si>
 </sst>
 </file>

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A77BAAF-A59E-6544-B686-D1A44505E2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345FC183-13DC-FA4E-A9EA-756FBDFD5CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="3500" windowWidth="30240" windowHeight="17340" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="0" yWindow="940" windowWidth="30240" windowHeight="17340" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -106,9 +106,6 @@
 - Groupby / Split-Apply-Combine</t>
   </si>
   <si>
-    <t>- JVP Chapter 5 up to "Hyperparameters and Model Validation" Section (pp 331 - 359)</t>
-  </si>
-  <si>
     <t>**FALL BREAK**</t>
   </si>
   <si>
@@ -427,6 +424,9 @@
 - `Improving Performance &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/50_performance_solutions.html&gt;`_
 - `Code Reviews &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/pr_review.html&gt;`_
 - Read all readings under the Statistical Modelling heading, starting with `Inference and Prediction &lt;../notebooks/class_5/week_3/20_inference_v_prediction.html&gt;`_ through `Beyond the Basic Model &lt;../notebooks/class_5/week_3/40_linear_regression_extensions&gt;`_</t>
+  </si>
+  <si>
+    <t>- `JVP Chapter 5 up to but not including "Hyperparameters and Model Validation" Section&lt;https://jakevdp.github.io/PythonDataScienceHandbook/#5.-Machine-Learning&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -835,7 +835,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -862,352 +862,352 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="272" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345FC183-13DC-FA4E-A9EA-756FBDFD5CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587E84B9-DBDD-2541-874B-2BBDF0CE97CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="940" windowWidth="30240" windowHeight="17340" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -83,10 +83,6 @@
 - Tracebacks</t>
   </si>
   <si>
-    <t>- Defining Your Own Estimators
-- Regex</t>
-  </si>
-  <si>
     <t>- Class Introduction
 - Welcome to VS Code</t>
   </si>
@@ -427,6 +423,9 @@
   </si>
   <si>
     <t>- `JVP Chapter 5 up to but not including "Hyperparameters and Model Validation" Section&lt;https://jakevdp.github.io/PythonDataScienceHandbook/#5.-Machine-Learning&gt;`_</t>
+  </si>
+  <si>
+    <t>- Defining Your Own Estimators</t>
   </si>
 </sst>
 </file>
@@ -834,7 +833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -862,352 +861,352 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="272" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587E84B9-DBDD-2541-874B-2BBDF0CE97CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A560D294-90C6-CD42-B038-3DD6547A68CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="940" windowWidth="30240" windowHeight="17340" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -220,11 +220,6 @@
 - `Parquet Format &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/30_parquet.html&gt;`_</t>
   </si>
   <si>
-    <t>- Review linear regression as matrix manipulations. `Here's a nice review. &lt;https://www.stat.purdue.edu/~boli/stat512/lectures/topic3.pdf&gt;`_
-- `Review how to define classes &lt;https://realpython.com/python3-object-oriented-programming/&gt;`_
-- `Broadcasting Gotchyas &lt;../notebooks/class_2/week_3/41_broadcasting.html#a-common-gotcha-narrow-matrices-v-1-dimensional-vectors&gt;`_</t>
-  </si>
-  <si>
     <t>- `conda Environments &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/conda_environments.html&gt;`_
 - `Parallel Computing &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/60_parallelism.html&gt;`_
 - `Distributed Computing with dask &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/70_dask.html&gt;`_
@@ -426,6 +421,12 @@
   </si>
   <si>
     <t>- Defining Your Own Estimators</t>
+  </si>
+  <si>
+    <t>- `Writing to Stakeholders &lt;https://ds4humans.com/40_in_practice/25_writing_to_stakeholders.html&gt;`_
+- Review linear regression as matrix manipulations. `Here's a nice review. &lt;https://www.stat.purdue.edu/~boli/stat512/lectures/topic3.pdf&gt;`_
+- `Review how to define classes &lt;https://realpython.com/python3-object-oriented-programming/&gt;`_
+- `Broadcasting Gotchyas &lt;../notebooks/class_2/week_3/41_broadcasting.html#a-common-gotcha-narrow-matrices-v-1-dimensional-vectors&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -834,7 +835,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -882,7 +883,7 @@
         <v>54</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -890,13 +891,13 @@
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.2">
@@ -907,10 +908,10 @@
         <v>17</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="136" x14ac:dyDescent="0.2">
@@ -918,13 +919,13 @@
         <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -935,10 +936,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="272" x14ac:dyDescent="0.2">
@@ -949,10 +950,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
@@ -963,10 +964,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -977,10 +978,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -991,10 +992,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.2">
@@ -1005,10 +1006,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -1019,10 +1020,10 @@
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.2">
@@ -1033,10 +1034,10 @@
         <v>22</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
@@ -1047,10 +1048,10 @@
         <v>21</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1080,7 +1081,7 @@
         <v>55</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -1088,13 +1089,13 @@
         <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.2">
@@ -1105,10 +1106,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
@@ -1119,10 +1120,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
@@ -1133,7 +1134,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" s="7"/>
     </row>
@@ -1145,10 +1146,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
@@ -1159,10 +1160,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
@@ -1170,13 +1171,13 @@
         <v>46</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="D25" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.2">
@@ -1187,7 +1188,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1198,7 +1199,7 @@
         <v>50</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A560D294-90C6-CD42-B038-3DD6547A68CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BCB193-767A-2A48-999F-90BC2937E6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="940" windowWidth="30240" windowHeight="17340" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -220,13 +220,6 @@
 - `Parquet Format &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/30_parquet.html&gt;`_</t>
   </si>
   <si>
-    <t>- `conda Environments &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/conda_environments.html&gt;`_
-- `Parallel Computing &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/60_parallelism.html&gt;`_
-- `Distributed Computing with dask &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/70_dask.html&gt;`_
-(Note reading includes a 45 minute video to watch)
-- **Opioid Project Rough Draft Due**</t>
-  </si>
-  <si>
     <t>- `Advanced Command Line &lt;../notebooks/PDS_not_yet_in_coursera/10_commandline/commandline_part2.html&gt;`_
 - `Python packages &lt;../notebooks/class_2/week_4/30_managing_python_packages.html&gt;`_
 - **SETUP 4:** `Jupyter in VS Code &lt;../notebooks/PDS_not_yet_in_coursera/00_setup_env/jupyter_in_vscode.html&gt;`_
@@ -417,9 +410,6 @@
 - Read all readings under the Statistical Modelling heading, starting with `Inference and Prediction &lt;../notebooks/class_5/week_3/20_inference_v_prediction.html&gt;`_ through `Beyond the Basic Model &lt;../notebooks/class_5/week_3/40_linear_regression_extensions&gt;`_</t>
   </si>
   <si>
-    <t>- `JVP Chapter 5 up to but not including "Hyperparameters and Model Validation" Section&lt;https://jakevdp.github.io/PythonDataScienceHandbook/#5.-Machine-Learning&gt;`_</t>
-  </si>
-  <si>
     <t>- Defining Your Own Estimators</t>
   </si>
   <si>
@@ -427,6 +417,15 @@
 - Review linear regression as matrix manipulations. `Here's a nice review. &lt;https://www.stat.purdue.edu/~boli/stat512/lectures/topic3.pdf&gt;`_
 - `Review how to define classes &lt;https://realpython.com/python3-object-oriented-programming/&gt;`_
 - `Broadcasting Gotchyas &lt;../notebooks/class_2/week_3/41_broadcasting.html#a-common-gotcha-narrow-matrices-v-1-dimensional-vectors&gt;`_</t>
+  </si>
+  <si>
+    <t>- `JVP Chapter 5 up to but not including Hyperparameters and Model Validation Section &lt;https://jakevdp.github.io/PythonDataScienceHandbook/#5.-Machine-Learning&gt;`_</t>
+  </si>
+  <si>
+    <t>- `conda Environments &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/conda_environments.html&gt;`_
+- `Parallel Computing &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/60_parallelism.html&gt;`_
+- `Distributed Computing with dask &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/70_dask.html&gt;`_
+(Note reading includes a 45 minute video to watch)</t>
   </si>
 </sst>
 </file>
@@ -835,7 +834,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -883,7 +882,7 @@
         <v>54</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -891,13 +890,13 @@
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.2">
@@ -908,10 +907,10 @@
         <v>17</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="136" x14ac:dyDescent="0.2">
@@ -919,13 +918,13 @@
         <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -936,10 +935,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="272" x14ac:dyDescent="0.2">
@@ -950,10 +949,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
@@ -964,10 +963,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -978,10 +977,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -992,10 +991,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.2">
@@ -1006,10 +1005,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -1020,10 +1019,10 @@
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.2">
@@ -1034,10 +1033,10 @@
         <v>22</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
@@ -1048,10 +1047,10 @@
         <v>21</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1081,7 +1080,7 @@
         <v>55</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -1089,13 +1088,13 @@
         <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.2">
@@ -1106,10 +1105,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
@@ -1120,10 +1119,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
@@ -1134,7 +1133,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="7"/>
     </row>
@@ -1146,10 +1145,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
@@ -1160,10 +1159,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
@@ -1171,16 +1170,16 @@
         <v>46</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>47</v>
       </c>
@@ -1188,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1199,7 +1198,7 @@
         <v>50</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BCB193-767A-2A48-999F-90BC2937E6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0847ABE9-2E5D-8C45-AC83-AC5ECF198F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="940" windowWidth="30240" windowHeight="17340" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -389,9 +389,6 @@
 - `Opioid Project &lt;https://github.com/nickeubank/practicaldatascience_book/blob/main/ids720_specific/opioids/PDS_ProjectSummary.pdf&gt;`_</t>
   </si>
   <si>
-    <t>- ROUGH DRAFT OF OPIOID PROJECT DUE</t>
-  </si>
-  <si>
     <t>- Defensive Programming: from `first reading &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/defensive_programming.html&gt;`_ through `Iceberg Principle &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/iceberg_principle.html&gt;`_
 - `Groupby &lt;../notebooks/class_3/week_4/20_grouping.html&gt;`_</t>
   </si>
@@ -426,6 +423,9 @@
 - `Parallel Computing &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/60_parallelism.html&gt;`_
 - `Distributed Computing with dask &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/70_dask.html&gt;`_
 (Note reading includes a 45 minute video to watch)</t>
+  </si>
+  <si>
+    <t>- ROUGH DRAFT OF OPIOID PROJECT DUE, extendable to Morning of Mon Nov 26 but feedback may be later</t>
   </si>
 </sst>
 </file>
@@ -834,7 +834,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1105,7 +1105,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>69</v>
@@ -1119,7 +1119,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>70</v>
@@ -1133,7 +1133,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" s="7"/>
     </row>
@@ -1145,7 +1145,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>71</v>
@@ -1159,7 +1159,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>72</v>
@@ -1170,10 +1170,10 @@
         <v>46</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>73</v>
@@ -1187,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1198,7 +1198,7 @@
         <v>50</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0847ABE9-2E5D-8C45-AC83-AC5ECF198F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DADCB0-F6A9-E14D-98EA-7FF8C8BF85EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="940" windowWidth="30240" windowHeight="17340" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t>Topic</t>
   </si>
@@ -426,6 +426,10 @@
   </si>
   <si>
     <t>- ROUGH DRAFT OF OPIOID PROJECT DUE, extendable to Morning of Mon Nov 26 but feedback may be later</t>
+  </si>
+  <si>
+    <t>- `Dask &lt;exercises/Exercise_dask_realdata.ipynb&gt;`_
+- `More dask (optional) &lt;exercises/Exercise_dask.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -834,7 +838,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1189,6 +1193,9 @@
       <c r="C26" s="8" t="s">
         <v>99</v>
       </c>
+      <c r="D26" s="12" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">

--- a/ids720_specific/class_schedule_xlsx.xlsx
+++ b/ids720_specific/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DADCB0-F6A9-E14D-98EA-7FF8C8BF85EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B80DD0C-DD9A-2747-9B77-8CC79D6EC043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="940" windowWidth="30240" windowHeight="17340" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -428,8 +428,8 @@
     <t>- ROUGH DRAFT OF OPIOID PROJECT DUE, extendable to Morning of Mon Nov 26 but feedback may be later</t>
   </si>
   <si>
-    <t>- `Dask &lt;exercises/Exercise_dask_realdata.ipynb&gt;`_
-- `More dask (optional) &lt;exercises/Exercise_dask.ipynb&gt;`_</t>
+    <t>- `Dask &lt;exercises/Exercise_dask_realdata.html&gt;`_
+- `More dask (optional) &lt;exercises/Exercise_dask.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -838,7 +838,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
